--- a/Dicionário.xlsx
+++ b/Dicionário.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tarefas\Dashboard\Dashboard-Final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2649DD-DE78-4FA0-88CC-8AF952055895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="iXgMGoEyBiSGMFe3AdF0gX/B51osbnqJwSgBjmiWdTo="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="245">
   <si>
     <t>Dicionário das variáveis da PNS 2019</t>
   </si>
@@ -675,7 +684,7 @@
     <t>Quatro ou mais vezes por semana</t>
   </si>
   <si>
-    <t>P03302 = Frequencia_Bebida_Memoria</t>
+    <t>P03302 = Frequencia_Bebida_Amnésia</t>
   </si>
   <si>
     <t>P33b</t>
@@ -693,7 +702,7 @@
     <t xml:space="preserve">Nos últimos três meses, o(a) Sr(a) praticou algum tipo de exercício físico ou esporte? </t>
   </si>
   <si>
-    <t>P035 = Frequencia_Esporte_semana</t>
+    <t>P035 = Frequencia_Esporte_Semana</t>
   </si>
   <si>
     <t>P35</t>
@@ -733,68 +742,103 @@
   </si>
   <si>
     <t xml:space="preserve">Não fuma este produto </t>
+  </si>
+  <si>
+    <t>P54a</t>
+  </si>
+  <si>
+    <t>Quantos por dia</t>
+  </si>
+  <si>
+    <t>1 a 98</t>
+  </si>
+  <si>
+    <t>Cigarros</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Quantos por semana</t>
+  </si>
+  <si>
+    <t>P05402 = Frequencia_Fumo_Dia</t>
+  </si>
+  <si>
+    <t>P05403 = Frequencia_Fumo_Semana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="10.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -802,7 +846,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -817,28 +861,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -848,6 +904,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -859,6 +916,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -867,9 +926,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -884,6 +945,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -892,6 +954,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -903,145 +968,168 @@
       <top style="thin">
         <color rgb="FF333300"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="18" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1231,2670 +1319,2672 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.29"/>
-    <col customWidth="1" min="2" max="2" width="12.86"/>
-    <col customWidth="1" min="3" max="3" width="19.57"/>
-    <col customWidth="1" min="4" max="4" width="10.0"/>
-    <col customWidth="1" min="5" max="5" width="51.14"/>
-    <col customWidth="1" min="6" max="6" width="7.29"/>
-    <col customWidth="1" min="7" max="7" width="47.71"/>
-    <col customWidth="1" min="8" max="26" width="8.43"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" customWidth="1"/>
+    <col min="8" max="26" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="32.25" customHeight="1">
-      <c r="A5" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A5" s="40">
+        <v>1</v>
+      </c>
+      <c r="B5" s="40">
+        <v>2</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="4">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="4">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="4">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18">
-        <v>14.0</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="7">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="G9" s="15" t="s">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="4">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14">
-        <v>16.0</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="4">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" ht="27.0" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14">
-        <v>17.0</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="4">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14">
-        <v>21.0</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="4">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14">
-        <v>22.0</v>
-      </c>
-      <c r="G13" s="15" t="s">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="4">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14">
-        <v>23.0</v>
-      </c>
-      <c r="G14" s="15" t="s">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="4">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14">
-        <v>24.0</v>
-      </c>
-      <c r="G15" s="15" t="s">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="4">
+        <v>24</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14">
-        <v>25.0</v>
-      </c>
-      <c r="G16" s="15" t="s">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="4">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" ht="24.0" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14">
-        <v>26.0</v>
-      </c>
-      <c r="G17" s="15" t="s">
+    <row r="17" spans="1:7" ht="24" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="4">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" ht="26.25" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="G18" s="15" t="s">
+    <row r="18" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="4">
+        <v>27</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" ht="26.25" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14">
-        <v>28.0</v>
-      </c>
-      <c r="G19" s="15" t="s">
+    <row r="19" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="4">
+        <v>28</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14">
-        <v>29.0</v>
-      </c>
-      <c r="G20" s="15" t="s">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="4">
+        <v>29</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14">
-        <v>31.0</v>
-      </c>
-      <c r="G21" s="15" t="s">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="4">
+        <v>31</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14">
-        <v>32.0</v>
-      </c>
-      <c r="G22" s="15" t="s">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="4">
+        <v>32</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14">
-        <v>33.0</v>
-      </c>
-      <c r="G23" s="15" t="s">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="4">
+        <v>33</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14">
-        <v>35.0</v>
-      </c>
-      <c r="G24" s="15" t="s">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="4">
+        <v>35</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14">
-        <v>41.0</v>
-      </c>
-      <c r="G25" s="15" t="s">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="4">
+        <v>41</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="14">
-        <v>42.0</v>
-      </c>
-      <c r="G26" s="15" t="s">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="4">
+        <v>42</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="14">
-        <v>43.0</v>
-      </c>
-      <c r="G27" s="15" t="s">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="4">
+        <v>43</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="14">
-        <v>50.0</v>
-      </c>
-      <c r="G28" s="15" t="s">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="4">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="14">
-        <v>51.0</v>
-      </c>
-      <c r="G29" s="15" t="s">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="4">
+        <v>51</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="14">
-        <v>52.0</v>
-      </c>
-      <c r="G30" s="15" t="s">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="4">
+        <v>52</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="14">
-        <v>53.0</v>
-      </c>
-      <c r="G31" s="15" t="s">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="4">
+        <v>53</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A32" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="A33" s="19">
-        <v>108.0</v>
-      </c>
-      <c r="B33" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A33" s="42">
+        <v>108</v>
+      </c>
+      <c r="B33" s="42">
+        <v>1</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="G33" s="22" t="s">
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" ht="30.0" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="G34" s="22" t="s">
+    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="10">
+        <v>2</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22" t="s">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" ht="29.25" customHeight="1">
-      <c r="A36" s="19">
-        <v>117.0</v>
-      </c>
-      <c r="B36" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="C36" s="20" t="s">
+    <row r="36" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A36" s="42">
+        <v>117</v>
+      </c>
+      <c r="B36" s="42">
+        <v>3</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22" t="s">
+    <row r="37" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" ht="59.25" customHeight="1">
-      <c r="A38" s="19">
-        <v>120.0</v>
-      </c>
-      <c r="B38" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="C38" s="20" t="s">
+    <row r="38" spans="1:7" ht="59.25" customHeight="1">
+      <c r="A38" s="42">
+        <v>120</v>
+      </c>
+      <c r="B38" s="42">
+        <v>1</v>
+      </c>
+      <c r="C38" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="G38" s="22" t="s">
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="G39" s="22" t="s">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="10">
+        <v>2</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" ht="73.5" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="G40" s="22" t="s">
+    <row r="40" spans="1:7" ht="73.5" customHeight="1">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="10">
+        <v>3</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="G41" s="22" t="s">
+    <row r="41" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="10">
+        <v>4</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="G42" s="22" t="s">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="10">
+        <v>5</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" ht="34.5" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="G43" s="22" t="s">
+    <row r="43" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="10">
+        <v>9</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22" t="s">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="19">
-        <v>133.0</v>
-      </c>
-      <c r="B45" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="C45" s="19" t="s">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A45" s="42">
+        <v>133</v>
+      </c>
+      <c r="B45" s="42">
+        <v>1</v>
+      </c>
+      <c r="C45" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="G45" s="26" t="s">
+      <c r="F45" s="14">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" ht="24.0" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="G46" s="26" t="s">
+    <row r="46" spans="1:7" ht="24" customHeight="1">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="14">
+        <v>2</v>
+      </c>
+      <c r="G46" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="G47" s="26" t="s">
+    <row r="47" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="14">
+        <v>3</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" ht="24.0" customHeight="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="G48" s="26" t="s">
+    <row r="48" spans="1:7" ht="24" customHeight="1">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="14">
+        <v>4</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="G49" s="26" t="s">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="14">
+        <v>9</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26" t="s">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A51" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="19">
-        <v>196.0</v>
-      </c>
-      <c r="B52" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="C52" s="20" t="s">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A52" s="42">
+        <v>196</v>
+      </c>
+      <c r="B52" s="42">
+        <v>8</v>
+      </c>
+      <c r="C52" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" ht="32.25" customHeight="1">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="27" t="s">
+    <row r="53" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" ht="51.0" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="22" t="s">
+    <row r="54" spans="1:7" ht="51" customHeight="1">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="19">
-        <v>227.0</v>
-      </c>
-      <c r="B55" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="C55" s="20" t="s">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A55" s="42">
+        <v>227</v>
+      </c>
+      <c r="B55" s="42">
+        <v>3</v>
+      </c>
+      <c r="C55" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="22" t="s">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A57" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" ht="39.0" customHeight="1">
-      <c r="A58" s="19">
-        <v>375.0</v>
-      </c>
-      <c r="B58" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="C58" s="20" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+    </row>
+    <row r="58" spans="1:7" ht="39" customHeight="1">
+      <c r="A58" s="8">
+        <v>375</v>
+      </c>
+      <c r="B58" s="8">
+        <v>2</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="20">
-        <v>377.0</v>
-      </c>
-      <c r="B59" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C59" s="20" t="s">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A59" s="38">
+        <v>377</v>
+      </c>
+      <c r="B59" s="38">
+        <v>1</v>
+      </c>
+      <c r="C59" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" ht="34.5" customHeight="1">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="27" t="s">
+    <row r="60" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G60" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="27" t="s">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G61" s="28" t="s">
+      <c r="G61" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="27" t="s">
+    <row r="62" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22" t="s">
+    <row r="63" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A64" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="19">
-        <v>986.0</v>
-      </c>
-      <c r="B65" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="C65" s="20" t="s">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A65" s="42">
+        <v>986</v>
+      </c>
+      <c r="B65" s="42">
+        <v>1</v>
+      </c>
+      <c r="C65" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="F65" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G65" s="22" t="s">
+      <c r="G65" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" ht="34.5" customHeight="1">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="27" t="s">
+    <row r="66" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="27" t="s">
+    <row r="67" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="22" t="s">
+    <row r="68" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="19">
-        <v>987.0</v>
-      </c>
-      <c r="B69" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="C69" s="20" t="s">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A69" s="42">
+        <v>987</v>
+      </c>
+      <c r="B69" s="42">
+        <v>1</v>
+      </c>
+      <c r="C69" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" ht="33.0" customHeight="1">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="27" t="s">
+    <row r="70" spans="1:7" ht="33" customHeight="1">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" ht="39.0" customHeight="1">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="27" t="s">
+    <row r="71" spans="1:7" ht="39" customHeight="1">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" ht="45.75" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="22" t="s">
+    <row r="72" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="20">
-        <v>988.0</v>
-      </c>
-      <c r="B73" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C73" s="20" t="s">
+    <row r="73" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A73" s="38">
+        <v>988</v>
+      </c>
+      <c r="B73" s="38">
+        <v>1</v>
+      </c>
+      <c r="C73" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G73" s="22" t="s">
+      <c r="G73" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" ht="38.25" customHeight="1">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="27" t="s">
+    <row r="74" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="27" t="s">
+    <row r="75" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G75" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="27" t="s">
+    <row r="76" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="22" t="s">
+    <row r="77" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="19">
-        <v>989.0</v>
-      </c>
-      <c r="B78" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="C78" s="20" t="s">
+    <row r="78" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A78" s="8">
+        <v>989</v>
+      </c>
+      <c r="B78" s="42">
+        <v>2</v>
+      </c>
+      <c r="C78" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="27" t="s">
+      <c r="F78" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G78" s="28" t="s">
+      <c r="G78" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="30"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="27" t="s">
+    <row r="79" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A79" s="18"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G79" s="28" t="s">
+      <c r="G79" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="30"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="27" t="s">
+    <row r="80" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A80" s="18"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="22" t="s">
+    <row r="81" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="20">
-        <v>991.0</v>
-      </c>
-      <c r="B82" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C82" s="20" t="s">
+    <row r="82" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A82" s="38">
+        <v>991</v>
+      </c>
+      <c r="B82" s="38">
+        <v>1</v>
+      </c>
+      <c r="C82" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F82" s="27" t="s">
+      <c r="F82" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G82" s="22" t="s">
+      <c r="G82" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="27" t="s">
+    <row r="83" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G83" s="22" t="s">
+      <c r="G83" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="27" t="s">
+    <row r="84" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G84" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="27" t="s">
+    <row r="85" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G85" s="22" t="s">
+      <c r="G85" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="22" t="s">
+    <row r="86" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" ht="23.25" customHeight="1">
-      <c r="A87" s="19">
-        <v>992.0</v>
-      </c>
-      <c r="B87" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="C87" s="20" t="s">
+    <row r="87" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A87" s="42">
+        <v>992</v>
+      </c>
+      <c r="B87" s="42">
+        <v>2</v>
+      </c>
+      <c r="C87" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G87" s="22" t="s">
+      <c r="G87" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="88" ht="24.0" customHeight="1">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="27" t="s">
+    <row r="88" spans="1:8" ht="24" customHeight="1">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G88" s="32" t="s">
+      <c r="G88" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H88" s="16"/>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="27" t="s">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G89" s="22" t="s">
+      <c r="G89" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H89" s="16"/>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="27" t="s">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G90" s="22" t="s">
+      <c r="G90" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H90" s="16"/>
-    </row>
-    <row r="91" ht="18.75" customHeight="1">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="27" t="s">
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G91" s="22" t="s">
+      <c r="G91" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H91" s="16"/>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="27" t="s">
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G92" s="32" t="s">
+      <c r="G92" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="H92" s="16"/>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="27" t="s">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G93" s="22" t="s">
+      <c r="G93" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H93" s="16"/>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="27" t="s">
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G94" s="22" t="s">
+      <c r="G94" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H94" s="16"/>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="27" t="s">
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G95" s="28" t="s">
+      <c r="G95" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="H95" s="16"/>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="27" t="s">
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G96" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H96" s="16"/>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="22" t="s">
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H97" s="16"/>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="11" t="s">
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A98" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="16"/>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="20">
-        <v>1538.0</v>
-      </c>
-      <c r="B99" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="20" t="s">
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A99" s="38">
+        <v>1538</v>
+      </c>
+      <c r="B99" s="38">
+        <v>1</v>
+      </c>
+      <c r="C99" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20" t="s">
+      <c r="D99" s="38"/>
+      <c r="E99" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="F99" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G99" s="22" t="s">
+      <c r="G99" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H99" s="16"/>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="33" t="s">
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G100" s="22" t="s">
+      <c r="G100" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H100" s="16"/>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="33" t="s">
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G101" s="22" t="s">
+      <c r="G101" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H101" s="16"/>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="33" t="s">
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G102" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H102" s="16"/>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="34" t="s">
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H103" s="16"/>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="11" t="s">
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A104" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="16"/>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="19">
-        <v>196.0</v>
-      </c>
-      <c r="B105" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="C105" s="20" t="s">
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A105" s="42">
+        <v>196</v>
+      </c>
+      <c r="B105" s="42">
+        <v>8</v>
+      </c>
+      <c r="C105" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F105" s="27" t="s">
+      <c r="F105" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="22" t="s">
+      <c r="G105" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H105" s="16"/>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="27" t="s">
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G106" s="28" t="s">
+      <c r="G106" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H106" s="16"/>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="H107" s="16"/>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="11" t="s">
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A108" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="16"/>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="20">
-        <v>557.0</v>
-      </c>
-      <c r="B109" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C109" s="20" t="s">
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A109" s="38">
+        <v>557</v>
+      </c>
+      <c r="B109" s="38">
+        <v>1</v>
+      </c>
+      <c r="C109" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="F109" s="27" t="s">
+      <c r="F109" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G109" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="H109" s="16"/>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="27" t="s">
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G110" s="28" t="s">
+      <c r="G110" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="H110" s="16"/>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="27" t="s">
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G111" s="28" t="s">
+      <c r="G111" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="H111" s="16"/>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="27" t="s">
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A112" s="39"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G112" s="28" t="s">
+      <c r="G112" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="H112" s="16"/>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="27" t="s">
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G113" s="28" t="s">
+      <c r="G113" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="H113" s="16"/>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="27" t="s">
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A114" s="39"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H114" s="16"/>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="22" t="s">
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H115" s="16"/>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="29">
-        <v>558.0</v>
-      </c>
-      <c r="B116" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="C116" s="29" t="s">
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A116" s="43">
+        <v>558</v>
+      </c>
+      <c r="B116" s="43">
+        <v>1</v>
+      </c>
+      <c r="C116" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="D116" s="29" t="s">
+      <c r="D116" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="E116" s="29" t="s">
+      <c r="E116" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="F116" s="35" t="s">
+      <c r="F116" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G116" s="36" t="s">
+      <c r="G116" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="H116" s="16"/>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="35" t="s">
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="G117" s="36" t="s">
+      <c r="G117" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="H117" s="16"/>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="35" t="s">
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="G118" s="36" t="s">
+      <c r="G118" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H118" s="16"/>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="35" t="s">
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G119" s="36" t="s">
+      <c r="G119" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="H119" s="16"/>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="35" t="s">
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A120" s="39"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="G120" s="36" t="s">
+      <c r="G120" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="H120" s="16"/>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="35" t="s">
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G121" s="32" t="s">
+      <c r="G121" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H121" s="16"/>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="32" t="s">
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H122" s="16"/>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="20">
-        <v>564.0</v>
-      </c>
-      <c r="B123" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C123" s="20" t="s">
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A123" s="38">
+        <v>564</v>
+      </c>
+      <c r="B123" s="38">
+        <v>1</v>
+      </c>
+      <c r="C123" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="D123" s="20" t="s">
+      <c r="D123" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="F123" s="27" t="s">
+      <c r="F123" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G123" s="28" t="s">
+      <c r="G123" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H123" s="16"/>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="17"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="27" t="s">
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G124" s="28" t="s">
+      <c r="G124" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H124" s="16"/>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="27" t="s">
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G125" s="28" t="s">
+      <c r="G125" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="H125" s="16"/>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="27" t="s">
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G126" s="28" t="s">
+      <c r="G126" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="H126" s="16"/>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="27" t="s">
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G127" s="22" t="s">
+      <c r="G127" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H127" s="16"/>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="22" t="s">
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H128" s="16"/>
-    </row>
-    <row r="129" ht="24.0" customHeight="1">
-      <c r="A129" s="20">
-        <v>565.0</v>
-      </c>
-      <c r="B129" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C129" s="20" t="s">
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" ht="24" customHeight="1">
+      <c r="A129" s="38">
+        <v>565</v>
+      </c>
+      <c r="B129" s="38">
+        <v>1</v>
+      </c>
+      <c r="C129" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D129" s="20" t="s">
+      <c r="D129" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F129" s="27" t="s">
+      <c r="F129" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G129" s="28" t="s">
+      <c r="G129" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H129" s="16"/>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="17"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="27" t="s">
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G130" s="28" t="s">
+      <c r="G130" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H130" s="16"/>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="27" t="s">
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G131" s="28" t="s">
+      <c r="G131" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="H131" s="16"/>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="27" t="s">
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G132" s="28" t="s">
+      <c r="G132" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="H132" s="16"/>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="27" t="s">
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H133" s="16"/>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="22" t="s">
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A134" s="34"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H134" s="16"/>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="20">
-        <v>566.0</v>
-      </c>
-      <c r="B135" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C135" s="20" t="s">
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A135" s="38">
+        <v>566</v>
+      </c>
+      <c r="B135" s="38">
+        <v>1</v>
+      </c>
+      <c r="C135" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="D135" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E135" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F135" s="27" t="s">
+      <c r="F135" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G135" s="28" t="s">
+      <c r="G135" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H135" s="16"/>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="17"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="27" t="s">
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G136" s="28" t="s">
+      <c r="G136" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H136" s="16"/>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="17"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="27" t="s">
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A137" s="39"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G137" s="28" t="s">
+      <c r="G137" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="H137" s="16"/>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="17"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="27" t="s">
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A138" s="39"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G138" s="28" t="s">
+      <c r="G138" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="H138" s="16"/>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="27" t="s">
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G139" s="22" t="s">
+      <c r="G139" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H139" s="16"/>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="22" t="s">
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A140" s="34"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H140" s="16"/>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="20">
-        <v>567.0</v>
-      </c>
-      <c r="B141" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C141" s="20" t="s">
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A141" s="38">
+        <v>567</v>
+      </c>
+      <c r="B141" s="38">
+        <v>1</v>
+      </c>
+      <c r="C141" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="D141" s="20" t="s">
+      <c r="D141" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="E141" s="20" t="s">
+      <c r="E141" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="F141" s="27" t="s">
+      <c r="F141" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G141" s="28" t="s">
+      <c r="G141" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H141" s="16"/>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="17"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="27" t="s">
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G142" s="28" t="s">
+      <c r="G142" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H142" s="16"/>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="17"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="27" t="s">
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G143" s="28" t="s">
+      <c r="G143" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="H143" s="16"/>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="27" t="s">
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G144" s="28" t="s">
+      <c r="G144" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="H144" s="16"/>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="17"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="27" t="s">
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G145" s="22" t="s">
+      <c r="G145" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H145" s="16"/>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="22" t="s">
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A146" s="34"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H146" s="16"/>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="20">
-        <v>568.0</v>
-      </c>
-      <c r="B147" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C147" s="20" t="s">
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A147" s="38">
+        <v>568</v>
+      </c>
+      <c r="B147" s="38">
+        <v>1</v>
+      </c>
+      <c r="C147" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D147" s="20" t="s">
+      <c r="D147" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E147" s="20" t="s">
+      <c r="E147" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F147" s="27" t="s">
+      <c r="F147" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G147" s="28" t="s">
+      <c r="G147" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H147" s="16"/>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="17"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="27" t="s">
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A148" s="39"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G148" s="28" t="s">
+      <c r="G148" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H148" s="16"/>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="17"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="27" t="s">
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A149" s="39"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G149" s="28" t="s">
+      <c r="G149" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="H149" s="16"/>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="17"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="27" t="s">
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A150" s="39"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G150" s="28" t="s">
+      <c r="G150" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="H150" s="16"/>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="27" t="s">
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G151" s="22" t="s">
+      <c r="G151" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H151" s="16"/>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="24"/>
-      <c r="G152" s="22" t="s">
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A152" s="34"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="34"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H152" s="16"/>
-    </row>
-    <row r="153" ht="34.5" customHeight="1">
-      <c r="A153" s="20">
-        <v>569.0</v>
-      </c>
-      <c r="B153" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C153" s="20" t="s">
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A153" s="38">
+        <v>569</v>
+      </c>
+      <c r="B153" s="38">
+        <v>1</v>
+      </c>
+      <c r="C153" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="D153" s="20" t="s">
+      <c r="D153" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E153" s="20" t="s">
+      <c r="E153" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F153" s="27" t="s">
+      <c r="F153" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G153" s="28" t="s">
+      <c r="G153" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H153" s="16"/>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="27" t="s">
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A154" s="39"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G154" s="28" t="s">
+      <c r="G154" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H154" s="16"/>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="27" t="s">
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A155" s="39"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
+      <c r="F155" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G155" s="28" t="s">
+      <c r="G155" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="H155" s="16"/>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="27" t="s">
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A156" s="39"/>
+      <c r="B156" s="39"/>
+      <c r="C156" s="39"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="39"/>
+      <c r="F156" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G156" s="28" t="s">
+      <c r="G156" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="H156" s="16"/>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="27" t="s">
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A157" s="39"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="39"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="39"/>
+      <c r="F157" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G157" s="22" t="s">
+      <c r="G157" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="22" t="s">
+    <row r="158" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A158" s="34"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="34"/>
+      <c r="D158" s="34"/>
+      <c r="E158" s="34"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="20">
-        <v>570.0</v>
-      </c>
-      <c r="B159" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C159" s="20" t="s">
+    <row r="159" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A159" s="38">
+        <v>570</v>
+      </c>
+      <c r="B159" s="38">
+        <v>1</v>
+      </c>
+      <c r="C159" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="D159" s="20" t="s">
+      <c r="D159" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="E159" s="20" t="s">
+      <c r="E159" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="F159" s="27" t="s">
+      <c r="F159" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G159" s="28" t="s">
+      <c r="G159" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="17"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="27" t="s">
+    <row r="160" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A160" s="39"/>
+      <c r="B160" s="39"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="39"/>
+      <c r="F160" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G160" s="28" t="s">
+      <c r="G160" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="27" t="s">
+    <row r="161" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A161" s="39"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G161" s="28" t="s">
+      <c r="G161" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="27" t="s">
+    <row r="162" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A162" s="39"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="39"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G162" s="28" t="s">
+      <c r="G162" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="17"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="27" t="s">
+    <row r="163" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="39"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="39"/>
+      <c r="F163" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G163" s="22" t="s">
+      <c r="G163" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="22" t="s">
+    <row r="164" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A164" s="34"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
+      <c r="E164" s="34"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" s="20">
-        <v>571.0</v>
-      </c>
-      <c r="B165" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C165" s="20" t="s">
+    <row r="165" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A165" s="38">
+        <v>571</v>
+      </c>
+      <c r="B165" s="38">
+        <v>1</v>
+      </c>
+      <c r="C165" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="D165" s="20" t="s">
+      <c r="D165" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E165" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="F165" s="27" t="s">
+      <c r="F165" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G165" s="28" t="s">
+      <c r="G165" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="27" t="s">
+    <row r="166" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A166" s="39"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="39"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G166" s="28" t="s">
+      <c r="G166" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" s="17"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="27" t="s">
+    <row r="167" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A167" s="39"/>
+      <c r="B167" s="39"/>
+      <c r="C167" s="39"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G167" s="28" t="s">
+      <c r="G167" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="27" t="s">
+    <row r="168" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G168" s="28" t="s">
+      <c r="G168" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="27" t="s">
+    <row r="169" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
+      <c r="C169" s="39"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="39"/>
+      <c r="F169" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G169" s="22" t="s">
+      <c r="G169" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="22" t="s">
+    <row r="170" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A170" s="34"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="34"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" s="20">
-        <v>572.0</v>
-      </c>
-      <c r="B171" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C171" s="20" t="s">
+    <row r="171" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A171" s="38">
+        <v>572</v>
+      </c>
+      <c r="B171" s="38">
+        <v>1</v>
+      </c>
+      <c r="C171" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D171" s="20" t="s">
+      <c r="D171" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E171" s="20" t="s">
+      <c r="E171" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="F171" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="G171" s="28" t="s">
+      <c r="F171" s="13">
+        <v>1</v>
+      </c>
+      <c r="G171" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
-      <c r="A172" s="17"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="27" t="s">
+    <row r="172" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G172" s="28" t="s">
+      <c r="G172" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" s="17"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="27" t="s">
+    <row r="173" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="39"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G173" s="28" t="s">
+      <c r="G173" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
-      <c r="A174" s="17"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="27" t="s">
+    <row r="174" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
+      <c r="C174" s="39"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="39"/>
+      <c r="F174" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G174" s="28" t="s">
+      <c r="G174" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
-      <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="27" t="s">
+    <row r="175" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="39"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="39"/>
+      <c r="F175" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G175" s="22" t="s">
+      <c r="G175" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="22" t="s">
+    <row r="176" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A176" s="34"/>
+      <c r="B176" s="34"/>
+      <c r="C176" s="34"/>
+      <c r="D176" s="34"/>
+      <c r="E176" s="34"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
-      <c r="A177" s="38" t="s">
+    <row r="177" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A177" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="39"/>
-    </row>
-    <row r="178" ht="14.25" customHeight="1">
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="26"/>
+    </row>
+    <row r="178" spans="1:8" ht="14.25" customHeight="1">
       <c r="A178" s="40">
-        <v>607.0</v>
+        <v>607</v>
       </c>
       <c r="B178" s="40">
-        <v>5.0</v>
-      </c>
-      <c r="C178" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D178" s="42"/>
+      <c r="D178" s="41"/>
       <c r="E178" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="F178" s="43" t="s">
+      <c r="F178" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="G178" s="44" t="s">
+      <c r="G178" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H178" s="39"/>
-    </row>
-    <row r="179" ht="14.25" customHeight="1">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="44" t="s">
+      <c r="H178" s="26"/>
+    </row>
+    <row r="179" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A179" s="34"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="34"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H179" s="39"/>
-    </row>
-    <row r="180" ht="14.25" customHeight="1">
+      <c r="H179" s="26"/>
+    </row>
+    <row r="180" spans="1:8" ht="14.25" customHeight="1">
       <c r="A180" s="40">
-        <v>662.0</v>
+        <v>662</v>
       </c>
       <c r="B180" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="C180" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="40" t="s">
         <v>203</v>
       </c>
       <c r="D180" s="40" t="s">
@@ -3903,76 +3993,76 @@
       <c r="E180" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="F180" s="18" t="s">
+      <c r="F180" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G180" s="44" t="s">
+      <c r="G180" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H180" s="39"/>
-    </row>
-    <row r="181" ht="14.25" customHeight="1">
-      <c r="A181" s="17"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="18" t="s">
+      <c r="H180" s="26"/>
+    </row>
+    <row r="181" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
+      <c r="C181" s="39"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="39"/>
+      <c r="F181" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G181" s="44" t="s">
+      <c r="G181" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H181" s="39"/>
-    </row>
-    <row r="182" ht="14.25" customHeight="1">
-      <c r="A182" s="17"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="18" t="s">
+      <c r="H181" s="26"/>
+    </row>
+    <row r="182" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="39"/>
+      <c r="D182" s="39"/>
+      <c r="E182" s="39"/>
+      <c r="F182" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G182" s="44" t="s">
+      <c r="G182" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H182" s="39"/>
-    </row>
-    <row r="183" ht="14.25" customHeight="1">
-      <c r="A183" s="17"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="17"/>
-      <c r="F183" s="18" t="s">
+      <c r="H182" s="26"/>
+    </row>
+    <row r="183" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="39"/>
+      <c r="D183" s="39"/>
+      <c r="E183" s="39"/>
+      <c r="F183" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G183" s="44" t="s">
+      <c r="G183" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H183" s="39"/>
-    </row>
-    <row r="184" ht="14.25" customHeight="1">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="46"/>
-      <c r="G184" s="44" t="s">
+      <c r="H183" s="26"/>
+    </row>
+    <row r="184" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A184" s="34"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="29"/>
+      <c r="G184" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H184" s="39"/>
-    </row>
-    <row r="185" ht="14.25" customHeight="1">
+      <c r="H184" s="26"/>
+    </row>
+    <row r="185" spans="1:8" ht="14.25" customHeight="1">
       <c r="A185" s="40">
-        <v>670.0</v>
+        <v>670</v>
       </c>
       <c r="B185" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="C185" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="40" t="s">
         <v>209</v>
       </c>
       <c r="D185" s="40" t="s">
@@ -3981,104 +4071,104 @@
       <c r="E185" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="F185" s="18" t="s">
+      <c r="F185" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G185" s="44" t="s">
+      <c r="G185" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H185" s="39"/>
-    </row>
-    <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="17"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="18" t="s">
+      <c r="H185" s="26"/>
+    </row>
+    <row r="186" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A186" s="39"/>
+      <c r="B186" s="39"/>
+      <c r="C186" s="39"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
+      <c r="F186" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G186" s="44" t="s">
+      <c r="G186" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H186" s="39"/>
-    </row>
-    <row r="187" ht="14.25" customHeight="1">
-      <c r="A187" s="17"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="18" t="s">
+      <c r="H186" s="26"/>
+    </row>
+    <row r="187" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39"/>
+      <c r="F187" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G187" s="44" t="s">
+      <c r="G187" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="H187" s="39"/>
-    </row>
-    <row r="188" ht="14.25" customHeight="1">
-      <c r="A188" s="17"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="17"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="17"/>
-      <c r="F188" s="18" t="s">
+      <c r="H187" s="26"/>
+    </row>
+    <row r="188" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="39"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="39"/>
+      <c r="F188" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G188" s="44" t="s">
+      <c r="G188" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H188" s="39"/>
-    </row>
-    <row r="189" ht="14.25" customHeight="1">
-      <c r="A189" s="17"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
-      <c r="F189" s="18" t="s">
+      <c r="H188" s="26"/>
+    </row>
+    <row r="189" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A189" s="39"/>
+      <c r="B189" s="39"/>
+      <c r="C189" s="39"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="39"/>
+      <c r="F189" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G189" s="44" t="s">
+      <c r="G189" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H189" s="39"/>
-    </row>
-    <row r="190" ht="14.25" customHeight="1">
-      <c r="A190" s="17"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="17"/>
-      <c r="F190" s="18" t="s">
+      <c r="H189" s="26"/>
+    </row>
+    <row r="190" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="39"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
+      <c r="F190" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G190" s="44" t="s">
+      <c r="G190" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H190" s="39"/>
-    </row>
-    <row r="191" ht="14.25" customHeight="1">
-      <c r="A191" s="7"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="46"/>
-      <c r="G191" s="44" t="s">
+      <c r="H190" s="26"/>
+    </row>
+    <row r="191" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A191" s="34"/>
+      <c r="B191" s="34"/>
+      <c r="C191" s="34"/>
+      <c r="D191" s="34"/>
+      <c r="E191" s="34"/>
+      <c r="F191" s="29"/>
+      <c r="G191" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H191" s="39"/>
-    </row>
-    <row r="192" ht="14.25" customHeight="1">
+      <c r="H191" s="26"/>
+    </row>
+    <row r="192" spans="1:8" ht="14.25" customHeight="1">
       <c r="A192" s="40">
-        <v>671.0</v>
+        <v>671</v>
       </c>
       <c r="B192" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="C192" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D192" s="40" t="s">
@@ -4087,104 +4177,104 @@
       <c r="E192" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="F192" s="18" t="s">
+      <c r="F192" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G192" s="44" t="s">
+      <c r="G192" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H192" s="39"/>
-    </row>
-    <row r="193" ht="14.25" customHeight="1">
-      <c r="A193" s="17"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17"/>
-      <c r="F193" s="18" t="s">
+      <c r="H192" s="26"/>
+    </row>
+    <row r="193" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="39"/>
+      <c r="D193" s="39"/>
+      <c r="E193" s="39"/>
+      <c r="F193" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G193" s="44" t="s">
+      <c r="G193" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H193" s="39"/>
-    </row>
-    <row r="194" ht="14.25" customHeight="1">
-      <c r="A194" s="17"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
-      <c r="D194" s="17"/>
-      <c r="E194" s="17"/>
-      <c r="F194" s="18" t="s">
+      <c r="H193" s="26"/>
+    </row>
+    <row r="194" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="39"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39"/>
+      <c r="F194" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G194" s="44" t="s">
+      <c r="G194" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="H194" s="39"/>
-    </row>
-    <row r="195" ht="14.25" customHeight="1">
-      <c r="A195" s="17"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="18" t="s">
+      <c r="H194" s="26"/>
+    </row>
+    <row r="195" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="39"/>
+      <c r="D195" s="39"/>
+      <c r="E195" s="39"/>
+      <c r="F195" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G195" s="44" t="s">
+      <c r="G195" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H195" s="39"/>
-    </row>
-    <row r="196" ht="14.25" customHeight="1">
-      <c r="A196" s="17"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
-      <c r="F196" s="18" t="s">
+      <c r="H195" s="26"/>
+    </row>
+    <row r="196" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A196" s="39"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="39"/>
+      <c r="D196" s="39"/>
+      <c r="E196" s="39"/>
+      <c r="F196" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G196" s="44" t="s">
+      <c r="G196" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H196" s="39"/>
-    </row>
-    <row r="197" ht="14.25" customHeight="1">
-      <c r="A197" s="17"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="18" t="s">
+      <c r="H196" s="26"/>
+    </row>
+    <row r="197" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
+      <c r="F197" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G197" s="44" t="s">
+      <c r="G197" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H197" s="39"/>
-    </row>
-    <row r="198" ht="14.25" customHeight="1">
-      <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="44" t="s">
+      <c r="H197" s="26"/>
+    </row>
+    <row r="198" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A198" s="34"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H198" s="39"/>
-    </row>
-    <row r="199" ht="14.25" customHeight="1">
+      <c r="H198" s="26"/>
+    </row>
+    <row r="199" spans="1:8" ht="14.25" customHeight="1">
       <c r="A199" s="40">
-        <v>673.0</v>
+        <v>673</v>
       </c>
       <c r="B199" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="C199" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="40" t="s">
         <v>220</v>
       </c>
       <c r="D199" s="40" t="s">
@@ -4193,62 +4283,62 @@
       <c r="E199" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="F199" s="18" t="s">
+      <c r="F199" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G199" s="44" t="s">
+      <c r="G199" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H199" s="39"/>
-    </row>
-    <row r="200" ht="14.25" customHeight="1">
-      <c r="A200" s="17"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="17"/>
-      <c r="F200" s="18" t="s">
+      <c r="H199" s="26"/>
+    </row>
+    <row r="200" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A200" s="39"/>
+      <c r="B200" s="39"/>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
+      <c r="F200" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G200" s="44" t="s">
+      <c r="G200" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H200" s="39"/>
-    </row>
-    <row r="201" ht="14.25" customHeight="1">
-      <c r="A201" s="17"/>
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="18" t="s">
+      <c r="H200" s="26"/>
+    </row>
+    <row r="201" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
+      <c r="C201" s="39"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39"/>
+      <c r="F201" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G201" s="44" t="s">
+      <c r="G201" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H201" s="39"/>
-    </row>
-    <row r="202" ht="14.25" customHeight="1">
-      <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="44" t="s">
+      <c r="H201" s="26"/>
+    </row>
+    <row r="202" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A202" s="34"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="34"/>
+      <c r="D202" s="34"/>
+      <c r="E202" s="34"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H202" s="39"/>
-    </row>
-    <row r="203" ht="14.25" customHeight="1">
+      <c r="H202" s="26"/>
+    </row>
+    <row r="203" spans="1:8" ht="14.25" customHeight="1">
       <c r="A203" s="40">
-        <v>674.0</v>
+        <v>674</v>
       </c>
       <c r="B203" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="C203" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="40" t="s">
         <v>223</v>
       </c>
       <c r="D203" s="40" t="s">
@@ -4257,62 +4347,62 @@
       <c r="E203" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="F203" s="18" t="s">
+      <c r="F203" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G203" s="44" t="s">
+      <c r="G203" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H203" s="39"/>
-    </row>
-    <row r="204" ht="14.25" customHeight="1">
-      <c r="A204" s="17"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
-      <c r="F204" s="18" t="s">
+      <c r="H203" s="26"/>
+    </row>
+    <row r="204" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A204" s="39"/>
+      <c r="B204" s="39"/>
+      <c r="C204" s="39"/>
+      <c r="D204" s="39"/>
+      <c r="E204" s="39"/>
+      <c r="F204" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G204" s="44" t="s">
+      <c r="G204" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H204" s="39"/>
-    </row>
-    <row r="205" ht="14.25" customHeight="1">
-      <c r="A205" s="17"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="17"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17"/>
-      <c r="F205" s="18" t="s">
+      <c r="H204" s="26"/>
+    </row>
+    <row r="205" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="39"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39"/>
+      <c r="F205" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G205" s="44" t="s">
+      <c r="G205" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H205" s="39"/>
-    </row>
-    <row r="206" ht="14.25" customHeight="1">
-      <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="45"/>
-      <c r="G206" s="44" t="s">
+      <c r="H205" s="26"/>
+    </row>
+    <row r="206" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A206" s="34"/>
+      <c r="B206" s="34"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="34"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H206" s="39"/>
-    </row>
-    <row r="207" ht="14.25" customHeight="1">
+      <c r="H206" s="26"/>
+    </row>
+    <row r="207" spans="1:8" ht="14.25" customHeight="1">
       <c r="A207" s="40">
-        <v>716.0</v>
+        <v>716</v>
       </c>
       <c r="B207" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="C207" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="40" t="s">
         <v>229</v>
       </c>
       <c r="D207" s="40" t="s">
@@ -4321,107 +4411,203 @@
       <c r="E207" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="F207" s="18" t="s">
+      <c r="F207" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G207" s="44" t="s">
+      <c r="G207" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H207" s="39"/>
-    </row>
-    <row r="208" ht="14.25" customHeight="1">
-      <c r="A208" s="17"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="18" t="s">
+      <c r="H207" s="26"/>
+    </row>
+    <row r="208" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A208" s="39"/>
+      <c r="B208" s="39"/>
+      <c r="C208" s="39"/>
+      <c r="D208" s="39"/>
+      <c r="E208" s="39"/>
+      <c r="F208" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G208" s="44" t="s">
+      <c r="G208" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H208" s="39"/>
-    </row>
-    <row r="209" ht="14.25" customHeight="1">
-      <c r="A209" s="17"/>
-      <c r="B209" s="17"/>
-      <c r="C209" s="17"/>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
-      <c r="F209" s="18" t="s">
+      <c r="H208" s="26"/>
+    </row>
+    <row r="209" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="39"/>
+      <c r="D209" s="39"/>
+      <c r="E209" s="39"/>
+      <c r="F209" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G209" s="44" t="s">
+      <c r="G209" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="H209" s="39"/>
-    </row>
-    <row r="210" ht="14.25" customHeight="1">
-      <c r="A210" s="17"/>
-      <c r="B210" s="17"/>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="18" t="s">
+      <c r="H209" s="26"/>
+    </row>
+    <row r="210" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="39"/>
+      <c r="D210" s="39"/>
+      <c r="E210" s="39"/>
+      <c r="F210" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G210" s="44" t="s">
+      <c r="G210" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H210" s="39"/>
-    </row>
-    <row r="211" ht="14.25" customHeight="1">
-      <c r="A211" s="17"/>
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="18" t="s">
+      <c r="H210" s="26"/>
+    </row>
+    <row r="211" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
+      <c r="C211" s="39"/>
+      <c r="D211" s="39"/>
+      <c r="E211" s="39"/>
+      <c r="F211" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G211" s="44" t="s">
+      <c r="G211" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H211" s="39"/>
-    </row>
-    <row r="212" ht="14.25" customHeight="1">
-      <c r="A212" s="17"/>
-      <c r="B212" s="17"/>
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="18" t="s">
+      <c r="H211" s="26"/>
+    </row>
+    <row r="212" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
+      <c r="C212" s="39"/>
+      <c r="D212" s="39"/>
+      <c r="E212" s="39"/>
+      <c r="F212" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G212" s="44" t="s">
+      <c r="G212" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H212" s="39"/>
-    </row>
-    <row r="213" ht="14.25" customHeight="1">
-      <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="46"/>
-      <c r="G213" s="44" t="s">
+      <c r="H212" s="26"/>
+    </row>
+    <row r="213" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A213" s="34"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="34"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H213" s="39"/>
-    </row>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
+      <c r="H213" s="26"/>
+    </row>
+    <row r="214" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A214" s="45">
+        <v>717</v>
+      </c>
+      <c r="B214" s="45">
+        <v>2</v>
+      </c>
+      <c r="C214" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D214" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E214" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F214" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G214" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A215" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B215" s="45"/>
+      <c r="C215" s="45"/>
+      <c r="D215" s="45"/>
+      <c r="E215" s="45"/>
+      <c r="F215" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G215" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A216" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B216" s="45"/>
+      <c r="C216" s="45"/>
+      <c r="D216" s="45"/>
+      <c r="E216" s="45"/>
+      <c r="F216" s="46"/>
+      <c r="G216" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A217" s="45">
+        <v>719</v>
+      </c>
+      <c r="B217" s="45">
+        <v>2</v>
+      </c>
+      <c r="C217" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D217" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E217" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="F217" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G217" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A218" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B218" s="45"/>
+      <c r="C218" s="45"/>
+      <c r="D218" s="45"/>
+      <c r="E218" s="45"/>
+      <c r="F218" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G218" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A219" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B219" s="45"/>
+      <c r="C219" s="45"/>
+      <c r="D219" s="45"/>
+      <c r="E219" s="45"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="221" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="222" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="223" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="224" spans="1:8" ht="14.25" customHeight="1"/>
     <row r="225" ht="14.25" customHeight="1"/>
     <row r="226" ht="14.25" customHeight="1"/>
     <row r="227" ht="14.25" customHeight="1"/>
@@ -4482,7 +4668,7 @@
     <row r="282" ht="14.25" customHeight="1"/>
     <row r="283" ht="14.25" customHeight="1"/>
     <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="21.0" customHeight="1"/>
+    <row r="285" ht="21" customHeight="1"/>
     <row r="286" ht="14.25" customHeight="1"/>
     <row r="287" ht="28.5" customHeight="1"/>
     <row r="288" ht="14.25" customHeight="1"/>
@@ -4534,7 +4720,7 @@
     <row r="334" ht="14.25" customHeight="1"/>
     <row r="335" ht="14.25" customHeight="1"/>
     <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="24.0" customHeight="1"/>
+    <row r="337" ht="24" customHeight="1"/>
     <row r="338" ht="14.25" customHeight="1"/>
     <row r="339" ht="14.25" customHeight="1"/>
     <row r="340" ht="14.25" customHeight="1"/>
@@ -5199,169 +5385,17 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="184">
-    <mergeCell ref="B207:B213"/>
-    <mergeCell ref="A207:A213"/>
-    <mergeCell ref="D207:D213"/>
-    <mergeCell ref="E207:E213"/>
-    <mergeCell ref="C207:C213"/>
-    <mergeCell ref="B192:B198"/>
-    <mergeCell ref="C192:C198"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="A192:A198"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="D171:D176"/>
-    <mergeCell ref="E171:E176"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B180:B184"/>
-    <mergeCell ref="C180:C184"/>
-    <mergeCell ref="B185:B191"/>
-    <mergeCell ref="C185:C191"/>
-    <mergeCell ref="A180:A184"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="D203:D206"/>
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="D185:D191"/>
-    <mergeCell ref="E185:E191"/>
-    <mergeCell ref="D180:D184"/>
-    <mergeCell ref="E180:E184"/>
-    <mergeCell ref="D199:D202"/>
-    <mergeCell ref="E199:E202"/>
-    <mergeCell ref="E203:E206"/>
-    <mergeCell ref="D192:D198"/>
-    <mergeCell ref="E192:E198"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A5:A31"/>
-    <mergeCell ref="B5:B31"/>
-    <mergeCell ref="C5:C31"/>
-    <mergeCell ref="D5:D31"/>
-    <mergeCell ref="E5:E31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A87:A97"/>
-    <mergeCell ref="B87:B97"/>
-    <mergeCell ref="C87:C97"/>
-    <mergeCell ref="D87:D97"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="E87:E97"/>
-    <mergeCell ref="A98:G98"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="D109:D115"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="E123:E128"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="D135:D140"/>
-    <mergeCell ref="E135:E140"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="C116:C122"/>
-    <mergeCell ref="D116:D122"/>
-    <mergeCell ref="E116:E122"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="C135:C140"/>
-    <mergeCell ref="D147:D152"/>
-    <mergeCell ref="E147:E152"/>
+  <mergeCells count="194">
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="E214:E216"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="E217:E219"/>
     <mergeCell ref="D153:D158"/>
     <mergeCell ref="E153:E158"/>
     <mergeCell ref="D159:D164"/>
@@ -5380,14 +5414,174 @@
     <mergeCell ref="C153:C158"/>
     <mergeCell ref="B159:B164"/>
     <mergeCell ref="C159:C164"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="C135:C140"/>
+    <mergeCell ref="D147:D152"/>
+    <mergeCell ref="E147:E152"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="D203:D206"/>
+    <mergeCell ref="E203:E206"/>
+    <mergeCell ref="A207:A213"/>
+    <mergeCell ref="B207:B213"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="D207:D213"/>
+    <mergeCell ref="E207:E213"/>
+    <mergeCell ref="D192:D198"/>
+    <mergeCell ref="E192:E198"/>
+    <mergeCell ref="D199:D202"/>
+    <mergeCell ref="E199:E202"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A184"/>
+    <mergeCell ref="B180:B184"/>
+    <mergeCell ref="C180:C184"/>
+    <mergeCell ref="D180:D184"/>
+    <mergeCell ref="E180:E184"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A199:A202"/>
+    <mergeCell ref="B185:B191"/>
+    <mergeCell ref="C185:C191"/>
+    <mergeCell ref="A192:A198"/>
+    <mergeCell ref="B192:B198"/>
+    <mergeCell ref="C192:C198"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="C199:C202"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="D171:D176"/>
+    <mergeCell ref="E171:E176"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="D185:D191"/>
+    <mergeCell ref="E185:E191"/>
     <mergeCell ref="B171:B176"/>
     <mergeCell ref="C171:C176"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="C199:C202"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="D109:D115"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="E123:E128"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="D135:D140"/>
+    <mergeCell ref="E135:E140"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="D116:D122"/>
+    <mergeCell ref="E116:E122"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="E87:E97"/>
+    <mergeCell ref="A98:G98"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A87:A97"/>
+    <mergeCell ref="B87:B97"/>
+    <mergeCell ref="C87:C97"/>
+    <mergeCell ref="D87:D97"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A5:A31"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="C5:C31"/>
+    <mergeCell ref="D5:D31"/>
+    <mergeCell ref="E5:E31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.7875" footer="0.0" header="0.0" left="0.511805555555556" right="0.511805555555556" top="0.7875"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dicionário.xlsx
+++ b/Dicionário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tarefas\Dashboard\Dashboard-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2649DD-DE78-4FA0-88CC-8AF952055895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7DD3FA-3F14-4BB1-8F44-911574791EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="267">
   <si>
     <t>Dicionário das variáveis da PNS 2019</t>
   </si>
@@ -766,6 +766,72 @@
   </si>
   <si>
     <t>P05403 = Frequencia_Fumo_Semana</t>
+  </si>
+  <si>
+    <t>M14a</t>
+  </si>
+  <si>
+    <t>Com quantos familiares ou parentes ___ pode contar em momentos bons ou ruins</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>Um</t>
+  </si>
+  <si>
+    <t>Dois</t>
+  </si>
+  <si>
+    <t>Três ou mais</t>
+  </si>
+  <si>
+    <t>M15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Com quantos amigos próximos ___ pode contar em momentos bons ou ruins (Sem considerar os familiares ou parentes</t>
+  </si>
+  <si>
+    <t>M16a</t>
+  </si>
+  <si>
+    <t>Nos últimos doze meses, com que frequência o(a) Sr(a) se reuniu com outras pessoas para prática de atividades esportivas, exercícios físicos, recreativos ou artísticos</t>
+  </si>
+  <si>
+    <t>Mais de uma vez por semana</t>
+  </si>
+  <si>
+    <t>Uma vez por semana</t>
+  </si>
+  <si>
+    <t>De 2 a 3 vezes por mês</t>
+  </si>
+  <si>
+    <t>Algumas vezes no ano</t>
+  </si>
+  <si>
+    <t>Uma vez no ano</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Nenhuma vez</t>
+  </si>
+  <si>
+    <t>Módulo M - Características do trabalho e apoio social</t>
+  </si>
+  <si>
+    <t>607+A196:F224</t>
+  </si>
+  <si>
+    <t>M01401 = Rede_apoio_familia</t>
+  </si>
+  <si>
+    <t>M01501 = Rede_apoio_amigos</t>
+  </si>
+  <si>
+    <t>M01601 = Frequencia_atividades_sociais</t>
   </si>
 </sst>
 </file>
@@ -775,7 +841,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,8 +906,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,6 +942,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -990,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1062,39 +1152,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1105,10 +1199,50 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188:C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1345,39 +1479,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1392,28 +1526,28 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A5" s="40">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4">
@@ -1427,11 +1561,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4">
         <v>12</v>
       </c>
@@ -1443,11 +1577,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="4">
         <v>13</v>
       </c>
@@ -1459,11 +1593,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="7">
         <v>14</v>
       </c>
@@ -1472,11 +1606,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="4">
         <v>15</v>
       </c>
@@ -1488,11 +1622,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="4">
         <v>16</v>
       </c>
@@ -1504,11 +1638,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="4">
         <v>17</v>
       </c>
@@ -1520,11 +1654,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="4">
         <v>21</v>
       </c>
@@ -1533,11 +1667,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="4">
         <v>22</v>
       </c>
@@ -1546,11 +1680,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="4">
         <v>23</v>
       </c>
@@ -1559,11 +1693,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="4">
         <v>24</v>
       </c>
@@ -1572,11 +1706,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="4">
         <v>25</v>
       </c>
@@ -1585,11 +1719,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="4">
         <v>26</v>
       </c>
@@ -1598,11 +1732,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="4">
         <v>27</v>
       </c>
@@ -1611,11 +1745,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="4">
         <v>28</v>
       </c>
@@ -1624,11 +1758,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="4">
         <v>29</v>
       </c>
@@ -1637,11 +1771,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="4">
         <v>31</v>
       </c>
@@ -1650,11 +1784,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="4">
         <v>32</v>
       </c>
@@ -1663,11 +1797,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="4">
         <v>33</v>
       </c>
@@ -1676,11 +1810,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="4">
         <v>35</v>
       </c>
@@ -1689,11 +1823,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="4">
         <v>41</v>
       </c>
@@ -1702,11 +1836,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="4">
         <v>42</v>
       </c>
@@ -1715,11 +1849,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="4">
         <v>43</v>
       </c>
@@ -1728,11 +1862,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="4">
         <v>50</v>
       </c>
@@ -1741,11 +1875,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="4">
         <v>51</v>
       </c>
@@ -1754,11 +1888,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="4">
         <v>52</v>
       </c>
@@ -1767,11 +1901,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="4">
         <v>53</v>
       </c>
@@ -1780,30 +1914,30 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A33" s="42">
+      <c r="A33" s="37">
         <v>108</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="37">
         <v>1</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="10">
@@ -1814,11 +1948,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="10">
         <v>2</v>
       </c>
@@ -1827,30 +1961,30 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A36" s="42">
+      <c r="A36" s="37">
         <v>117</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="37">
         <v>3</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="42" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -1861,30 +1995,30 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="10"/>
       <c r="G37" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="59.25" customHeight="1">
-      <c r="A38" s="42">
+      <c r="A38" s="37">
         <v>120</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="37">
         <v>1</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="42" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="10">
@@ -1895,11 +2029,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="10">
         <v>2</v>
       </c>
@@ -1908,11 +2042,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="73.5" customHeight="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="10">
         <v>3</v>
       </c>
@@ -1921,11 +2055,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="10">
         <v>4</v>
       </c>
@@ -1934,11 +2068,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="10">
         <v>5</v>
       </c>
@@ -1947,11 +2081,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="10">
         <v>9</v>
       </c>
@@ -1960,30 +2094,30 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A45" s="42">
+      <c r="A45" s="37">
         <v>133</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B45" s="37">
         <v>1</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="42" t="s">
         <v>63</v>
       </c>
       <c r="F45" s="14">
@@ -1994,11 +2128,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="24" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="14">
         <v>2</v>
       </c>
@@ -2007,11 +2141,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="14">
         <v>3</v>
       </c>
@@ -2020,11 +2154,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="24" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="14">
         <v>4</v>
       </c>
@@ -2033,11 +2167,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="14">
         <v>9</v>
       </c>
@@ -2046,41 +2180,41 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="14"/>
       <c r="G50" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A52" s="42">
+      <c r="A52" s="37">
         <v>196</v>
       </c>
-      <c r="B52" s="42">
+      <c r="B52" s="37">
         <v>8</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="42" t="s">
         <v>71</v>
       </c>
       <c r="F52" s="16" t="s">
@@ -2091,11 +2225,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="16" t="s">
         <v>74</v>
       </c>
@@ -2104,30 +2238,30 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="51" customHeight="1">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="16"/>
       <c r="G54" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A55" s="42">
+      <c r="A55" s="37">
         <v>227</v>
       </c>
-      <c r="B55" s="42">
+      <c r="B55" s="37">
         <v>3</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="42" t="s">
         <v>77</v>
       </c>
       <c r="F55" s="16" t="s">
@@ -2138,26 +2272,26 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="16"/>
       <c r="G56" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="36"/>
     </row>
     <row r="58" spans="1:7" ht="39" customHeight="1">
       <c r="A58" s="8">
@@ -2183,19 +2317,19 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A59" s="38">
+      <c r="A59" s="42">
         <v>377</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59" s="42">
         <v>1</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F59" s="16" t="s">
@@ -2206,11 +2340,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="16" t="s">
         <v>91</v>
       </c>
@@ -2219,11 +2353,11 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="16" t="s">
         <v>93</v>
       </c>
@@ -2232,11 +2366,11 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="16" t="s">
         <v>95</v>
       </c>
@@ -2245,41 +2379,41 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="10"/>
       <c r="G63" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A65" s="42">
+      <c r="A65" s="37">
         <v>986</v>
       </c>
-      <c r="B65" s="42">
+      <c r="B65" s="37">
         <v>1</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="42" t="s">
         <v>99</v>
       </c>
       <c r="F65" s="16" t="s">
@@ -2290,11 +2424,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
       <c r="F66" s="16" t="s">
         <v>91</v>
       </c>
@@ -2303,11 +2437,11 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
       <c r="F67" s="16" t="s">
         <v>95</v>
       </c>
@@ -2316,30 +2450,30 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
       <c r="F68" s="16"/>
       <c r="G68" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A69" s="42">
+      <c r="A69" s="37">
         <v>987</v>
       </c>
-      <c r="B69" s="42">
+      <c r="B69" s="37">
         <v>1</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="42" t="s">
         <v>103</v>
       </c>
       <c r="F69" s="16" t="s">
@@ -2350,11 +2484,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="33" customHeight="1">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
       <c r="F70" s="16" t="s">
         <v>91</v>
       </c>
@@ -2363,11 +2497,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="39" customHeight="1">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="16" t="s">
         <v>93</v>
       </c>
@@ -2376,27 +2510,27 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="16"/>
       <c r="G72" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A73" s="38">
+      <c r="A73" s="42">
         <v>988</v>
       </c>
-      <c r="B73" s="38">
+      <c r="B73" s="42">
         <v>1</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="42" t="s">
         <v>106</v>
       </c>
       <c r="E73" s="43" t="s">
@@ -2410,11 +2544,11 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
       <c r="F74" s="16" t="s">
         <v>91</v>
       </c>
@@ -2423,11 +2557,11 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="16" t="s">
         <v>93</v>
       </c>
@@ -2436,11 +2570,11 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="16" t="s">
         <v>111</v>
       </c>
@@ -2449,11 +2583,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="16"/>
       <c r="G77" s="11" t="s">
         <v>46</v>
@@ -2463,16 +2597,16 @@
       <c r="A78" s="8">
         <v>989</v>
       </c>
-      <c r="B78" s="42">
+      <c r="B78" s="37">
         <v>2</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="42" t="s">
         <v>114</v>
       </c>
       <c r="F78" s="16" t="s">
@@ -2484,10 +2618,10 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" customHeight="1">
       <c r="A79" s="18"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="16" t="s">
         <v>117</v>
       </c>
@@ -2497,10 +2631,10 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" customHeight="1">
       <c r="A80" s="18"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
       <c r="F80" s="16" t="s">
         <v>119</v>
       </c>
@@ -2513,26 +2647,26 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="34"/>
+      <c r="E81" s="32"/>
       <c r="F81" s="16"/>
       <c r="G81" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A82" s="38">
+      <c r="A82" s="42">
         <v>991</v>
       </c>
-      <c r="B82" s="38">
+      <c r="B82" s="42">
         <v>1</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="38" t="s">
+      <c r="E82" s="42" t="s">
         <v>122</v>
       </c>
       <c r="F82" s="16" t="s">
@@ -2543,11 +2677,11 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="16" t="s">
         <v>91</v>
       </c>
@@ -2556,11 +2690,11 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="16" t="s">
         <v>93</v>
       </c>
@@ -2569,11 +2703,11 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="16" t="s">
         <v>95</v>
       </c>
@@ -2582,30 +2716,30 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
       <c r="F86" s="16"/>
       <c r="G86" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A87" s="42">
+      <c r="A87" s="37">
         <v>992</v>
       </c>
-      <c r="B87" s="42">
+      <c r="B87" s="37">
         <v>2</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D87" s="38" t="s">
+      <c r="D87" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E87" s="38" t="s">
+      <c r="E87" s="42" t="s">
         <v>127</v>
       </c>
       <c r="F87" s="16" t="s">
@@ -2616,11 +2750,11 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="24" customHeight="1">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
       <c r="F88" s="16" t="s">
         <v>130</v>
       </c>
@@ -2630,11 +2764,11 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
       <c r="F89" s="16" t="s">
         <v>132</v>
       </c>
@@ -2644,11 +2778,11 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
       <c r="F90" s="16" t="s">
         <v>134</v>
       </c>
@@ -2658,11 +2792,11 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
       <c r="F91" s="16" t="s">
         <v>136</v>
       </c>
@@ -2672,11 +2806,11 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
       <c r="F92" s="16" t="s">
         <v>138</v>
       </c>
@@ -2686,11 +2820,11 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
       <c r="F93" s="16" t="s">
         <v>140</v>
       </c>
@@ -2700,11 +2834,11 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
       <c r="F94" s="16" t="s">
         <v>142</v>
       </c>
@@ -2714,11 +2848,11 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
       <c r="F95" s="16" t="s">
         <v>144</v>
       </c>
@@ -2728,11 +2862,11 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
       <c r="F96" s="16" t="s">
         <v>119</v>
       </c>
@@ -2742,11 +2876,11 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
       <c r="F97" s="16"/>
       <c r="G97" s="11" t="s">
         <v>46</v>
@@ -2754,29 +2888,29 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="32"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="36"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A99" s="38">
+      <c r="A99" s="42">
         <v>1538</v>
       </c>
-      <c r="B99" s="38">
+      <c r="B99" s="42">
         <v>1</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C99" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38" t="s">
+      <c r="D99" s="42"/>
+      <c r="E99" s="42" t="s">
         <v>148</v>
       </c>
       <c r="F99" s="21" t="s">
@@ -2788,11 +2922,11 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
       <c r="F100" s="21" t="s">
         <v>91</v>
       </c>
@@ -2802,11 +2936,11 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
+      <c r="A101" s="31"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
       <c r="F101" s="21" t="s">
         <v>93</v>
       </c>
@@ -2816,11 +2950,11 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
+      <c r="A102" s="31"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
       <c r="F102" s="21" t="s">
         <v>111</v>
       </c>
@@ -2830,11 +2964,11 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
       <c r="F103" s="21"/>
       <c r="G103" s="22" t="s">
         <v>46</v>
@@ -2842,31 +2976,31 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="32"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="36"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A105" s="42">
+      <c r="A105" s="37">
         <v>196</v>
       </c>
-      <c r="B105" s="42">
+      <c r="B105" s="37">
         <v>8</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D105" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E105" s="42" t="s">
         <v>71</v>
       </c>
       <c r="F105" s="16" t="s">
@@ -2878,11 +3012,11 @@
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
       <c r="F106" s="16" t="s">
         <v>74</v>
       </c>
@@ -2892,39 +3026,39 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A107" s="34"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A108" s="37" t="s">
+      <c r="A108" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="32"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="36"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A109" s="38">
+      <c r="A109" s="42">
         <v>557</v>
       </c>
-      <c r="B109" s="38">
+      <c r="B109" s="42">
         <v>1</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="38" t="s">
+      <c r="D109" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="38" t="s">
+      <c r="E109" s="42" t="s">
         <v>157</v>
       </c>
       <c r="F109" s="16" t="s">
@@ -2936,11 +3070,11 @@
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
+      <c r="A110" s="31"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
       <c r="F110" s="16" t="s">
         <v>91</v>
       </c>
@@ -2950,11 +3084,11 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
       <c r="F111" s="16" t="s">
         <v>93</v>
       </c>
@@ -2964,11 +3098,11 @@
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A112" s="39"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
+      <c r="A112" s="31"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
       <c r="F112" s="16" t="s">
         <v>111</v>
       </c>
@@ -2978,11 +3112,11 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A113" s="39"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
+      <c r="A113" s="31"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
       <c r="F113" s="16" t="s">
         <v>162</v>
       </c>
@@ -2992,11 +3126,11 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A114" s="39"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
+      <c r="A114" s="31"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
       <c r="F114" s="16" t="s">
         <v>95</v>
       </c>
@@ -3006,11 +3140,11 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A115" s="34"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
       <c r="F115" s="13"/>
       <c r="G115" s="11" t="s">
         <v>46</v>
@@ -3042,11 +3176,11 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A117" s="39"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
+      <c r="A117" s="31"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
       <c r="F117" s="23" t="s">
         <v>91</v>
       </c>
@@ -3056,11 +3190,11 @@
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A118" s="39"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
+      <c r="A118" s="31"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
       <c r="F118" s="23" t="s">
         <v>93</v>
       </c>
@@ -3070,11 +3204,11 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A119" s="39"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
       <c r="F119" s="23" t="s">
         <v>111</v>
       </c>
@@ -3084,11 +3218,11 @@
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A120" s="39"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
+      <c r="A120" s="31"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
       <c r="F120" s="23" t="s">
         <v>162</v>
       </c>
@@ -3098,11 +3232,11 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A121" s="39"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
+      <c r="A121" s="31"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
       <c r="F121" s="23" t="s">
         <v>95</v>
       </c>
@@ -3112,11 +3246,11 @@
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A122" s="34"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
       <c r="F122" s="25"/>
       <c r="G122" s="20" t="s">
         <v>46</v>
@@ -3124,19 +3258,19 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A123" s="38">
+      <c r="A123" s="42">
         <v>564</v>
       </c>
-      <c r="B123" s="38">
+      <c r="B123" s="42">
         <v>1</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D123" s="38" t="s">
+      <c r="D123" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="E123" s="38" t="s">
+      <c r="E123" s="42" t="s">
         <v>169</v>
       </c>
       <c r="F123" s="16" t="s">
@@ -3148,11 +3282,11 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A124" s="39"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
       <c r="F124" s="16" t="s">
         <v>91</v>
       </c>
@@ -3162,11 +3296,11 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A125" s="39"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
       <c r="F125" s="16" t="s">
         <v>93</v>
       </c>
@@ -3176,11 +3310,11 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A126" s="39"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
+      <c r="A126" s="31"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
       <c r="F126" s="16" t="s">
         <v>111</v>
       </c>
@@ -3190,11 +3324,11 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A127" s="39"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
       <c r="F127" s="16" t="s">
         <v>95</v>
       </c>
@@ -3204,11 +3338,11 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A128" s="34"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
       <c r="F128" s="13"/>
       <c r="G128" s="11" t="s">
         <v>46</v>
@@ -3216,19 +3350,19 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8" ht="24" customHeight="1">
-      <c r="A129" s="38">
+      <c r="A129" s="42">
         <v>565</v>
       </c>
-      <c r="B129" s="38">
+      <c r="B129" s="42">
         <v>1</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="D129" s="38" t="s">
+      <c r="D129" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="E129" s="38" t="s">
+      <c r="E129" s="42" t="s">
         <v>176</v>
       </c>
       <c r="F129" s="16" t="s">
@@ -3240,11 +3374,11 @@
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A130" s="39"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
       <c r="F130" s="16" t="s">
         <v>91</v>
       </c>
@@ -3254,11 +3388,11 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A131" s="39"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
+      <c r="A131" s="31"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
       <c r="F131" s="16" t="s">
         <v>93</v>
       </c>
@@ -3268,11 +3402,11 @@
       <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A132" s="39"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
+      <c r="A132" s="31"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
       <c r="F132" s="16" t="s">
         <v>111</v>
       </c>
@@ -3282,11 +3416,11 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A133" s="39"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
+      <c r="A133" s="31"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="16" t="s">
         <v>95</v>
       </c>
@@ -3296,11 +3430,11 @@
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A134" s="34"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
       <c r="F134" s="13"/>
       <c r="G134" s="11" t="s">
         <v>46</v>
@@ -3308,19 +3442,19 @@
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A135" s="38">
+      <c r="A135" s="42">
         <v>566</v>
       </c>
-      <c r="B135" s="38">
+      <c r="B135" s="42">
         <v>1</v>
       </c>
-      <c r="C135" s="38" t="s">
+      <c r="C135" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D135" s="38" t="s">
+      <c r="D135" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="E135" s="38" t="s">
+      <c r="E135" s="42" t="s">
         <v>179</v>
       </c>
       <c r="F135" s="16" t="s">
@@ -3332,11 +3466,11 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
+      <c r="A136" s="31"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
       <c r="F136" s="16" t="s">
         <v>91</v>
       </c>
@@ -3346,11 +3480,11 @@
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A137" s="39"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
+      <c r="A137" s="31"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
       <c r="F137" s="16" t="s">
         <v>93</v>
       </c>
@@ -3360,11 +3494,11 @@
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A138" s="39"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
+      <c r="A138" s="31"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
       <c r="F138" s="16" t="s">
         <v>111</v>
       </c>
@@ -3374,11 +3508,11 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
+      <c r="A139" s="31"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
       <c r="F139" s="16" t="s">
         <v>95</v>
       </c>
@@ -3388,11 +3522,11 @@
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A140" s="34"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
       <c r="F140" s="13"/>
       <c r="G140" s="11" t="s">
         <v>46</v>
@@ -3400,19 +3534,19 @@
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A141" s="38">
+      <c r="A141" s="42">
         <v>567</v>
       </c>
-      <c r="B141" s="38">
+      <c r="B141" s="42">
         <v>1</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D141" s="38" t="s">
+      <c r="D141" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="E141" s="38" t="s">
+      <c r="E141" s="42" t="s">
         <v>182</v>
       </c>
       <c r="F141" s="16" t="s">
@@ -3424,11 +3558,11 @@
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A142" s="39"/>
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
+      <c r="A142" s="31"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
       <c r="F142" s="16" t="s">
         <v>91</v>
       </c>
@@ -3438,11 +3572,11 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A143" s="39"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
       <c r="F143" s="16" t="s">
         <v>93</v>
       </c>
@@ -3452,11 +3586,11 @@
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A144" s="39"/>
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
+      <c r="A144" s="31"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
       <c r="F144" s="16" t="s">
         <v>111</v>
       </c>
@@ -3466,11 +3600,11 @@
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
+      <c r="A145" s="31"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
       <c r="F145" s="16" t="s">
         <v>95</v>
       </c>
@@ -3480,11 +3614,11 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A146" s="34"/>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
+      <c r="A146" s="32"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
       <c r="F146" s="13"/>
       <c r="G146" s="11" t="s">
         <v>46</v>
@@ -3492,19 +3626,19 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A147" s="38">
+      <c r="A147" s="42">
         <v>568</v>
       </c>
-      <c r="B147" s="38">
+      <c r="B147" s="42">
         <v>1</v>
       </c>
-      <c r="C147" s="38" t="s">
+      <c r="C147" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="D147" s="38" t="s">
+      <c r="D147" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="E147" s="38" t="s">
+      <c r="E147" s="42" t="s">
         <v>185</v>
       </c>
       <c r="F147" s="16" t="s">
@@ -3516,11 +3650,11 @@
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A148" s="39"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
+      <c r="A148" s="31"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
       <c r="F148" s="16" t="s">
         <v>91</v>
       </c>
@@ -3530,11 +3664,11 @@
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A149" s="39"/>
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
+      <c r="A149" s="31"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
       <c r="F149" s="16" t="s">
         <v>93</v>
       </c>
@@ -3544,11 +3678,11 @@
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A150" s="39"/>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
+      <c r="A150" s="31"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
       <c r="F150" s="16" t="s">
         <v>111</v>
       </c>
@@ -3558,11 +3692,11 @@
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A151" s="39"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="39"/>
+      <c r="A151" s="31"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
       <c r="F151" s="16" t="s">
         <v>95</v>
       </c>
@@ -3572,11 +3706,11 @@
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="13"/>
       <c r="G152" s="11" t="s">
         <v>46</v>
@@ -3584,19 +3718,19 @@
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A153" s="38">
+      <c r="A153" s="42">
         <v>569</v>
       </c>
-      <c r="B153" s="38">
+      <c r="B153" s="42">
         <v>1</v>
       </c>
-      <c r="C153" s="38" t="s">
+      <c r="C153" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="D153" s="38" t="s">
+      <c r="D153" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="E153" s="38" t="s">
+      <c r="E153" s="42" t="s">
         <v>188</v>
       </c>
       <c r="F153" s="16" t="s">
@@ -3608,11 +3742,11 @@
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A154" s="39"/>
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
+      <c r="A154" s="31"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
       <c r="F154" s="16" t="s">
         <v>91</v>
       </c>
@@ -3622,11 +3756,11 @@
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A155" s="39"/>
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
+      <c r="A155" s="31"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
       <c r="F155" s="16" t="s">
         <v>93</v>
       </c>
@@ -3636,11 +3770,11 @@
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A156" s="39"/>
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
+      <c r="A156" s="31"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
       <c r="F156" s="16" t="s">
         <v>111</v>
       </c>
@@ -3650,11 +3784,11 @@
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A157" s="39"/>
-      <c r="B157" s="39"/>
-      <c r="C157" s="39"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="39"/>
+      <c r="A157" s="31"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
       <c r="F157" s="16" t="s">
         <v>95</v>
       </c>
@@ -3663,30 +3797,30 @@
       </c>
     </row>
     <row r="158" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A158" s="34"/>
-      <c r="B158" s="34"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="34"/>
-      <c r="E158" s="34"/>
+      <c r="A158" s="32"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
       <c r="F158" s="13"/>
       <c r="G158" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A159" s="38">
+      <c r="A159" s="42">
         <v>570</v>
       </c>
-      <c r="B159" s="38">
+      <c r="B159" s="42">
         <v>1</v>
       </c>
-      <c r="C159" s="38" t="s">
+      <c r="C159" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D159" s="38" t="s">
+      <c r="D159" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="E159" s="38" t="s">
+      <c r="E159" s="42" t="s">
         <v>191</v>
       </c>
       <c r="F159" s="16" t="s">
@@ -3697,11 +3831,11 @@
       </c>
     </row>
     <row r="160" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A160" s="39"/>
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
+      <c r="A160" s="31"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
       <c r="F160" s="16" t="s">
         <v>91</v>
       </c>
@@ -3710,11 +3844,11 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A161" s="39"/>
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="39"/>
+      <c r="A161" s="31"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
       <c r="F161" s="16" t="s">
         <v>93</v>
       </c>
@@ -3723,11 +3857,11 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A162" s="39"/>
-      <c r="B162" s="39"/>
-      <c r="C162" s="39"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
+      <c r="A162" s="31"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31"/>
       <c r="F162" s="16" t="s">
         <v>111</v>
       </c>
@@ -3736,11 +3870,11 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A163" s="39"/>
-      <c r="B163" s="39"/>
-      <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
+      <c r="A163" s="31"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
       <c r="F163" s="16" t="s">
         <v>95</v>
       </c>
@@ -3749,30 +3883,30 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A164" s="34"/>
-      <c r="B164" s="34"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="34"/>
+      <c r="A164" s="32"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
       <c r="F164" s="13"/>
       <c r="G164" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A165" s="38">
+      <c r="A165" s="42">
         <v>571</v>
       </c>
-      <c r="B165" s="38">
+      <c r="B165" s="42">
         <v>1</v>
       </c>
-      <c r="C165" s="38" t="s">
+      <c r="C165" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="D165" s="38" t="s">
+      <c r="D165" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E165" s="38" t="s">
+      <c r="E165" s="42" t="s">
         <v>194</v>
       </c>
       <c r="F165" s="16" t="s">
@@ -3783,11 +3917,11 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A166" s="39"/>
-      <c r="B166" s="39"/>
-      <c r="C166" s="39"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
       <c r="F166" s="16" t="s">
         <v>91</v>
       </c>
@@ -3796,11 +3930,11 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A167" s="39"/>
-      <c r="B167" s="39"/>
-      <c r="C167" s="39"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
+      <c r="A167" s="31"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
       <c r="F167" s="16" t="s">
         <v>93</v>
       </c>
@@ -3809,11 +3943,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A168" s="39"/>
-      <c r="B168" s="39"/>
-      <c r="C168" s="39"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
+      <c r="A168" s="31"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
       <c r="F168" s="16" t="s">
         <v>111</v>
       </c>
@@ -3822,11 +3956,11 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A169" s="39"/>
-      <c r="B169" s="39"/>
-      <c r="C169" s="39"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="39"/>
+      <c r="A169" s="31"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
       <c r="F169" s="16" t="s">
         <v>95</v>
       </c>
@@ -3835,30 +3969,30 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A170" s="34"/>
-      <c r="B170" s="34"/>
-      <c r="C170" s="34"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="34"/>
+      <c r="A170" s="32"/>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
       <c r="F170" s="13"/>
       <c r="G170" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A171" s="38">
+      <c r="A171" s="42">
         <v>572</v>
       </c>
-      <c r="B171" s="38">
+      <c r="B171" s="42">
         <v>1</v>
       </c>
-      <c r="C171" s="38" t="s">
+      <c r="C171" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="D171" s="38" t="s">
+      <c r="D171" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="E171" s="38" t="s">
+      <c r="E171" s="42" t="s">
         <v>197</v>
       </c>
       <c r="F171" s="13">
@@ -3869,11 +4003,11 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
+      <c r="A172" s="31"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
       <c r="F172" s="16" t="s">
         <v>91</v>
       </c>
@@ -3882,11 +4016,11 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
-      <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
+      <c r="A173" s="31"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
       <c r="F173" s="16" t="s">
         <v>93</v>
       </c>
@@ -3895,11 +4029,11 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
-      <c r="C174" s="39"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="39"/>
+      <c r="A174" s="31"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
       <c r="F174" s="16" t="s">
         <v>111</v>
       </c>
@@ -3908,11 +4042,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A175" s="39"/>
-      <c r="B175" s="39"/>
-      <c r="C175" s="39"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="39"/>
+      <c r="A175" s="31"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
       <c r="F175" s="16" t="s">
         <v>95</v>
       </c>
@@ -3921,725 +4055,1017 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A176" s="34"/>
-      <c r="B176" s="34"/>
-      <c r="C176" s="34"/>
-      <c r="D176" s="34"/>
-      <c r="E176" s="34"/>
+      <c r="A176" s="32"/>
+      <c r="B176" s="32"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
       <c r="F176" s="13"/>
       <c r="G176" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A177" s="44" t="s">
+      <c r="A177" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B177" s="48"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="47"/>
+    </row>
+    <row r="178" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A178" s="45">
+        <v>551</v>
+      </c>
+      <c r="B178" s="45">
+        <v>1</v>
+      </c>
+      <c r="C178" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D178" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E178" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F178" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G178" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="H178" s="47"/>
+    </row>
+    <row r="179" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A179" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B179" s="45"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="45"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G179" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="H179" s="47"/>
+    </row>
+    <row r="180" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A180" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B180" s="45"/>
+      <c r="C180" s="45"/>
+      <c r="D180" s="45"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G180" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H180" s="47"/>
+    </row>
+    <row r="181" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A181" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B181" s="45"/>
+      <c r="C181" s="45"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G181" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="H181" s="47"/>
+    </row>
+    <row r="182" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A182" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B182" s="45"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="45"/>
+      <c r="F182" s="29"/>
+      <c r="G182" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H182" s="47"/>
+    </row>
+    <row r="183" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A183" s="45">
+        <v>552</v>
+      </c>
+      <c r="B183" s="45">
+        <v>1</v>
+      </c>
+      <c r="C183" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D183" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E183" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="F183" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G183" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="H183" s="47"/>
+    </row>
+    <row r="184" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A184" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B184" s="45"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="45"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G184" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="H184" s="47"/>
+    </row>
+    <row r="185" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A185" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B185" s="45"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G185" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H185" s="47"/>
+    </row>
+    <row r="186" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A186" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B186" s="45"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="45"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G186" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="H186" s="47"/>
+    </row>
+    <row r="187" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A187" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B187" s="45"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="45"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="29"/>
+      <c r="G187" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H187" s="47"/>
+    </row>
+    <row r="188" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A188" s="45">
+        <v>553</v>
+      </c>
+      <c r="B188" s="45">
+        <v>1</v>
+      </c>
+      <c r="C188" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="D188" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="E188" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F188" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G188" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="H188" s="47"/>
+    </row>
+    <row r="189" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A189" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B189" s="45"/>
+      <c r="C189" s="45"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G189" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="H189" s="47"/>
+    </row>
+    <row r="190" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A190" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B190" s="45"/>
+      <c r="C190" s="45"/>
+      <c r="D190" s="45"/>
+      <c r="E190" s="45"/>
+      <c r="F190" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G190" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="H190" s="47"/>
+    </row>
+    <row r="191" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A191" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B191" s="45"/>
+      <c r="C191" s="45"/>
+      <c r="D191" s="45"/>
+      <c r="E191" s="45"/>
+      <c r="F191" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G191" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="H191" s="47"/>
+    </row>
+    <row r="192" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A192" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="45"/>
+      <c r="E192" s="45"/>
+      <c r="F192" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G192" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="H192" s="47"/>
+    </row>
+    <row r="193" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A193" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B193" s="45"/>
+      <c r="C193" s="45"/>
+      <c r="D193" s="45"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G193" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="H193" s="47"/>
+    </row>
+    <row r="194" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A194" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B194" s="45"/>
+      <c r="C194" s="45"/>
+      <c r="D194" s="45"/>
+      <c r="E194" s="45"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H194" s="47"/>
+    </row>
+    <row r="195" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A195" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
-      <c r="E177" s="31"/>
-      <c r="F177" s="31"/>
-      <c r="G177" s="32"/>
-      <c r="H177" s="26"/>
-    </row>
-    <row r="178" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A178" s="40">
-        <v>607</v>
-      </c>
-      <c r="B178" s="40">
+      <c r="B195" s="35"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="35"/>
+      <c r="G195" s="36"/>
+      <c r="H195" s="26"/>
+    </row>
+    <row r="196" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A196" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="B196" s="50">
         <v>5</v>
       </c>
-      <c r="C178" s="40" t="s">
+      <c r="C196" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="D178" s="41"/>
-      <c r="E178" s="40" t="s">
+      <c r="D196" s="55"/>
+      <c r="E196" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="F178" s="27" t="s">
+      <c r="F196" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="G196" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="H178" s="26"/>
-    </row>
-    <row r="179" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A179" s="34"/>
-      <c r="B179" s="34"/>
-      <c r="C179" s="34"/>
-      <c r="D179" s="34"/>
-      <c r="E179" s="34"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="5" t="s">
+      <c r="H196" s="56"/>
+    </row>
+    <row r="197" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A197" s="57"/>
+      <c r="B197" s="57"/>
+      <c r="C197" s="58"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="59"/>
+      <c r="G197" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H179" s="26"/>
-    </row>
-    <row r="180" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A180" s="40">
+      <c r="H197" s="56"/>
+    </row>
+    <row r="198" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A198" s="50">
         <v>662</v>
       </c>
-      <c r="B180" s="40">
+      <c r="B198" s="50">
         <v>1</v>
       </c>
-      <c r="C180" s="40" t="s">
+      <c r="C198" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="D180" s="40" t="s">
+      <c r="D198" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="E180" s="40" t="s">
+      <c r="E198" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F198" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G180" s="5" t="s">
+      <c r="G198" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="H180" s="26"/>
-    </row>
-    <row r="181" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A181" s="39"/>
-      <c r="B181" s="39"/>
-      <c r="C181" s="39"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="39"/>
-      <c r="F181" s="7" t="s">
+      <c r="H198" s="56"/>
+    </row>
+    <row r="199" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A199" s="60"/>
+      <c r="B199" s="60"/>
+      <c r="C199" s="61"/>
+      <c r="D199" s="60"/>
+      <c r="E199" s="61"/>
+      <c r="F199" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="G199" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="H181" s="26"/>
-    </row>
-    <row r="182" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A182" s="39"/>
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="39"/>
-      <c r="F182" s="7" t="s">
+      <c r="H199" s="56"/>
+    </row>
+    <row r="200" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A200" s="60"/>
+      <c r="B200" s="60"/>
+      <c r="C200" s="61"/>
+      <c r="D200" s="60"/>
+      <c r="E200" s="61"/>
+      <c r="F200" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G182" s="5" t="s">
+      <c r="G200" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="H182" s="26"/>
-    </row>
-    <row r="183" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
-      <c r="C183" s="39"/>
-      <c r="D183" s="39"/>
-      <c r="E183" s="39"/>
-      <c r="F183" s="7" t="s">
+      <c r="H200" s="56"/>
+    </row>
+    <row r="201" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A201" s="60"/>
+      <c r="B201" s="60"/>
+      <c r="C201" s="61"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="61"/>
+      <c r="F201" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G183" s="5" t="s">
+      <c r="G201" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H183" s="26"/>
-    </row>
-    <row r="184" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A184" s="34"/>
-      <c r="B184" s="34"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="5" t="s">
+      <c r="H201" s="56"/>
+    </row>
+    <row r="202" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A202" s="57"/>
+      <c r="B202" s="57"/>
+      <c r="C202" s="58"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="62"/>
+      <c r="G202" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H184" s="26"/>
-    </row>
-    <row r="185" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A185" s="40">
+      <c r="H202" s="56"/>
+    </row>
+    <row r="203" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A203" s="50">
         <v>670</v>
       </c>
-      <c r="B185" s="40">
+      <c r="B203" s="50">
         <v>1</v>
       </c>
-      <c r="C185" s="40" t="s">
+      <c r="C203" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D185" s="40" t="s">
+      <c r="D203" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="E185" s="40" t="s">
+      <c r="E203" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F203" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G185" s="5" t="s">
+      <c r="G203" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="H185" s="26"/>
-    </row>
-    <row r="186" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A186" s="39"/>
-      <c r="B186" s="39"/>
-      <c r="C186" s="39"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="39"/>
-      <c r="F186" s="7" t="s">
+      <c r="H203" s="56"/>
+    </row>
+    <row r="204" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A204" s="60"/>
+      <c r="B204" s="60"/>
+      <c r="C204" s="61"/>
+      <c r="D204" s="60"/>
+      <c r="E204" s="61"/>
+      <c r="F204" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G186" s="5" t="s">
+      <c r="G204" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="H186" s="26"/>
-    </row>
-    <row r="187" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A187" s="39"/>
-      <c r="B187" s="39"/>
-      <c r="C187" s="39"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="39"/>
-      <c r="F187" s="7" t="s">
+      <c r="H204" s="56"/>
+    </row>
+    <row r="205" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A205" s="60"/>
+      <c r="B205" s="60"/>
+      <c r="C205" s="61"/>
+      <c r="D205" s="60"/>
+      <c r="E205" s="61"/>
+      <c r="F205" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="G205" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="H187" s="26"/>
-    </row>
-    <row r="188" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A188" s="39"/>
-      <c r="B188" s="39"/>
-      <c r="C188" s="39"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="39"/>
-      <c r="F188" s="7" t="s">
+      <c r="H205" s="56"/>
+    </row>
+    <row r="206" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A206" s="60"/>
+      <c r="B206" s="60"/>
+      <c r="C206" s="61"/>
+      <c r="D206" s="60"/>
+      <c r="E206" s="61"/>
+      <c r="F206" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="G188" s="5" t="s">
+      <c r="G206" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="H188" s="26"/>
-    </row>
-    <row r="189" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A189" s="39"/>
-      <c r="B189" s="39"/>
-      <c r="C189" s="39"/>
-      <c r="D189" s="39"/>
-      <c r="E189" s="39"/>
-      <c r="F189" s="7" t="s">
+      <c r="H206" s="56"/>
+    </row>
+    <row r="207" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A207" s="60"/>
+      <c r="B207" s="60"/>
+      <c r="C207" s="61"/>
+      <c r="D207" s="60"/>
+      <c r="E207" s="61"/>
+      <c r="F207" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="G189" s="5" t="s">
+      <c r="G207" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="H189" s="26"/>
-    </row>
-    <row r="190" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A190" s="39"/>
-      <c r="B190" s="39"/>
-      <c r="C190" s="39"/>
-      <c r="D190" s="39"/>
-      <c r="E190" s="39"/>
-      <c r="F190" s="7" t="s">
+      <c r="H207" s="56"/>
+    </row>
+    <row r="208" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A208" s="60"/>
+      <c r="B208" s="60"/>
+      <c r="C208" s="61"/>
+      <c r="D208" s="60"/>
+      <c r="E208" s="61"/>
+      <c r="F208" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G190" s="5" t="s">
+      <c r="G208" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H190" s="26"/>
-    </row>
-    <row r="191" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A191" s="34"/>
-      <c r="B191" s="34"/>
-      <c r="C191" s="34"/>
-      <c r="D191" s="34"/>
-      <c r="E191" s="34"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="5" t="s">
+      <c r="H208" s="56"/>
+    </row>
+    <row r="209" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A209" s="57"/>
+      <c r="B209" s="57"/>
+      <c r="C209" s="58"/>
+      <c r="D209" s="57"/>
+      <c r="E209" s="58"/>
+      <c r="F209" s="62"/>
+      <c r="G209" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H191" s="26"/>
-    </row>
-    <row r="192" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A192" s="40">
+      <c r="H209" s="56"/>
+    </row>
+    <row r="210" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A210" s="50">
         <v>671</v>
       </c>
-      <c r="B192" s="40">
+      <c r="B210" s="50">
         <v>1</v>
       </c>
-      <c r="C192" s="40" t="s">
+      <c r="C210" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D192" s="40" t="s">
+      <c r="D210" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="E192" s="40" t="s">
+      <c r="E210" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="F192" s="7" t="s">
+      <c r="F210" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="G210" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="H192" s="26"/>
-    </row>
-    <row r="193" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39"/>
-      <c r="C193" s="39"/>
-      <c r="D193" s="39"/>
-      <c r="E193" s="39"/>
-      <c r="F193" s="7" t="s">
+      <c r="H210" s="56"/>
+    </row>
+    <row r="211" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A211" s="60"/>
+      <c r="B211" s="60"/>
+      <c r="C211" s="61"/>
+      <c r="D211" s="60"/>
+      <c r="E211" s="61"/>
+      <c r="F211" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="G211" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="H193" s="26"/>
-    </row>
-    <row r="194" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="39"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="39"/>
-      <c r="F194" s="7" t="s">
+      <c r="H211" s="56"/>
+    </row>
+    <row r="212" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A212" s="60"/>
+      <c r="B212" s="60"/>
+      <c r="C212" s="61"/>
+      <c r="D212" s="60"/>
+      <c r="E212" s="61"/>
+      <c r="F212" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="G212" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="H194" s="26"/>
-    </row>
-    <row r="195" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="39"/>
-      <c r="D195" s="39"/>
-      <c r="E195" s="39"/>
-      <c r="F195" s="7" t="s">
+      <c r="H212" s="56"/>
+    </row>
+    <row r="213" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A213" s="60"/>
+      <c r="B213" s="60"/>
+      <c r="C213" s="61"/>
+      <c r="D213" s="60"/>
+      <c r="E213" s="61"/>
+      <c r="F213" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="G195" s="5" t="s">
+      <c r="G213" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="H195" s="26"/>
-    </row>
-    <row r="196" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
-      <c r="C196" s="39"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="7" t="s">
+      <c r="H213" s="56"/>
+    </row>
+    <row r="214" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A214" s="60"/>
+      <c r="B214" s="60"/>
+      <c r="C214" s="61"/>
+      <c r="D214" s="60"/>
+      <c r="E214" s="61"/>
+      <c r="F214" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="G214" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="H196" s="26"/>
-    </row>
-    <row r="197" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
-      <c r="C197" s="39"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
-      <c r="F197" s="7" t="s">
+      <c r="H214" s="56"/>
+    </row>
+    <row r="215" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A215" s="60"/>
+      <c r="B215" s="60"/>
+      <c r="C215" s="61"/>
+      <c r="D215" s="60"/>
+      <c r="E215" s="61"/>
+      <c r="F215" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G197" s="5" t="s">
+      <c r="G215" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H197" s="26"/>
-    </row>
-    <row r="198" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A198" s="34"/>
-      <c r="B198" s="34"/>
-      <c r="C198" s="34"/>
-      <c r="D198" s="34"/>
-      <c r="E198" s="34"/>
-      <c r="F198" s="28"/>
-      <c r="G198" s="5" t="s">
+      <c r="H215" s="56"/>
+    </row>
+    <row r="216" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A216" s="57"/>
+      <c r="B216" s="57"/>
+      <c r="C216" s="58"/>
+      <c r="D216" s="57"/>
+      <c r="E216" s="58"/>
+      <c r="F216" s="59"/>
+      <c r="G216" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H198" s="26"/>
-    </row>
-    <row r="199" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A199" s="40">
+      <c r="H216" s="56"/>
+    </row>
+    <row r="217" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A217" s="50">
         <v>673</v>
       </c>
-      <c r="B199" s="40">
+      <c r="B217" s="50">
         <v>1</v>
       </c>
-      <c r="C199" s="40" t="s">
+      <c r="C217" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="D199" s="40" t="s">
+      <c r="D217" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="E199" s="40" t="s">
+      <c r="E217" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="F199" s="7" t="s">
+      <c r="F217" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="G217" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="H199" s="26"/>
-    </row>
-    <row r="200" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A200" s="39"/>
-      <c r="B200" s="39"/>
-      <c r="C200" s="39"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="39"/>
-      <c r="F200" s="7" t="s">
+      <c r="H217" s="56"/>
+    </row>
+    <row r="218" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A218" s="60"/>
+      <c r="B218" s="60"/>
+      <c r="C218" s="61"/>
+      <c r="D218" s="60"/>
+      <c r="E218" s="61"/>
+      <c r="F218" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G200" s="5" t="s">
+      <c r="G218" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="H200" s="26"/>
-    </row>
-    <row r="201" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A201" s="39"/>
-      <c r="B201" s="39"/>
-      <c r="C201" s="39"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39"/>
-      <c r="F201" s="7" t="s">
+      <c r="H218" s="56"/>
+    </row>
+    <row r="219" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A219" s="60"/>
+      <c r="B219" s="60"/>
+      <c r="C219" s="61"/>
+      <c r="D219" s="60"/>
+      <c r="E219" s="61"/>
+      <c r="F219" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G201" s="5" t="s">
+      <c r="G219" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H201" s="26"/>
-    </row>
-    <row r="202" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A202" s="34"/>
-      <c r="B202" s="34"/>
-      <c r="C202" s="34"/>
-      <c r="D202" s="34"/>
-      <c r="E202" s="34"/>
-      <c r="F202" s="28"/>
-      <c r="G202" s="5" t="s">
+      <c r="H219" s="56"/>
+    </row>
+    <row r="220" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A220" s="57"/>
+      <c r="B220" s="57"/>
+      <c r="C220" s="58"/>
+      <c r="D220" s="57"/>
+      <c r="E220" s="58"/>
+      <c r="F220" s="59"/>
+      <c r="G220" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H202" s="26"/>
-    </row>
-    <row r="203" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A203" s="40">
+      <c r="H220" s="56"/>
+    </row>
+    <row r="221" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A221" s="50">
         <v>674</v>
       </c>
-      <c r="B203" s="40">
+      <c r="B221" s="50">
         <v>1</v>
       </c>
-      <c r="C203" s="40" t="s">
+      <c r="C221" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="D203" s="40" t="s">
+      <c r="D221" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="E203" s="40" t="s">
+      <c r="E221" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="F221" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="G203" s="5" t="s">
+      <c r="G221" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="H203" s="26"/>
-    </row>
-    <row r="204" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A204" s="39"/>
-      <c r="B204" s="39"/>
-      <c r="C204" s="39"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
-      <c r="F204" s="7" t="s">
+      <c r="H221" s="56"/>
+    </row>
+    <row r="222" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A222" s="60"/>
+      <c r="B222" s="60"/>
+      <c r="C222" s="61"/>
+      <c r="D222" s="60"/>
+      <c r="E222" s="61"/>
+      <c r="F222" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="G204" s="5" t="s">
+      <c r="G222" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="H204" s="26"/>
-    </row>
-    <row r="205" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
-      <c r="C205" s="39"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-      <c r="F205" s="7" t="s">
+      <c r="H222" s="56"/>
+    </row>
+    <row r="223" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A223" s="60"/>
+      <c r="B223" s="60"/>
+      <c r="C223" s="61"/>
+      <c r="D223" s="60"/>
+      <c r="E223" s="61"/>
+      <c r="F223" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G205" s="5" t="s">
+      <c r="G223" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H205" s="26"/>
-    </row>
-    <row r="206" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A206" s="34"/>
-      <c r="B206" s="34"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="34"/>
-      <c r="E206" s="34"/>
-      <c r="F206" s="28"/>
-      <c r="G206" s="5" t="s">
+      <c r="H223" s="56"/>
+    </row>
+    <row r="224" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A224" s="57"/>
+      <c r="B224" s="57"/>
+      <c r="C224" s="58"/>
+      <c r="D224" s="57"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="59"/>
+      <c r="G224" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H206" s="26"/>
-    </row>
-    <row r="207" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A207" s="40">
+      <c r="H224" s="56"/>
+    </row>
+    <row r="225" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A225" s="50">
         <v>716</v>
       </c>
-      <c r="B207" s="40">
+      <c r="B225" s="50">
         <v>1</v>
       </c>
-      <c r="C207" s="40" t="s">
+      <c r="C225" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D207" s="40" t="s">
+      <c r="D225" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="E207" s="40" t="s">
+      <c r="E225" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="F207" s="7" t="s">
+      <c r="F225" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G207" s="5" t="s">
+      <c r="G225" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="H207" s="26"/>
-    </row>
-    <row r="208" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
-      <c r="F208" s="7" t="s">
+      <c r="H225" s="56"/>
+    </row>
+    <row r="226" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A226" s="60"/>
+      <c r="B226" s="60"/>
+      <c r="C226" s="61"/>
+      <c r="D226" s="60"/>
+      <c r="E226" s="61"/>
+      <c r="F226" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G208" s="5" t="s">
+      <c r="G226" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="H208" s="26"/>
-    </row>
-    <row r="209" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A209" s="39"/>
-      <c r="B209" s="39"/>
-      <c r="C209" s="39"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
-      <c r="F209" s="7" t="s">
+      <c r="H226" s="56"/>
+    </row>
+    <row r="227" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A227" s="60"/>
+      <c r="B227" s="60"/>
+      <c r="C227" s="61"/>
+      <c r="D227" s="60"/>
+      <c r="E227" s="61"/>
+      <c r="F227" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G209" s="5" t="s">
+      <c r="G227" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="H209" s="26"/>
-    </row>
-    <row r="210" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A210" s="39"/>
-      <c r="B210" s="39"/>
-      <c r="C210" s="39"/>
-      <c r="D210" s="39"/>
-      <c r="E210" s="39"/>
-      <c r="F210" s="7" t="s">
+      <c r="H227" s="56"/>
+    </row>
+    <row r="228" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A228" s="60"/>
+      <c r="B228" s="60"/>
+      <c r="C228" s="61"/>
+      <c r="D228" s="60"/>
+      <c r="E228" s="61"/>
+      <c r="F228" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="G228" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="H210" s="26"/>
-    </row>
-    <row r="211" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
-      <c r="C211" s="39"/>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
-      <c r="F211" s="7" t="s">
+      <c r="H228" s="56"/>
+    </row>
+    <row r="229" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A229" s="60"/>
+      <c r="B229" s="60"/>
+      <c r="C229" s="61"/>
+      <c r="D229" s="60"/>
+      <c r="E229" s="61"/>
+      <c r="F229" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="G211" s="5" t="s">
+      <c r="G229" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="H211" s="26"/>
-    </row>
-    <row r="212" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A212" s="39"/>
-      <c r="B212" s="39"/>
-      <c r="C212" s="39"/>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
-      <c r="F212" s="7" t="s">
+      <c r="H229" s="56"/>
+    </row>
+    <row r="230" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A230" s="60"/>
+      <c r="B230" s="60"/>
+      <c r="C230" s="61"/>
+      <c r="D230" s="60"/>
+      <c r="E230" s="61"/>
+      <c r="F230" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G212" s="5" t="s">
+      <c r="G230" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H212" s="26"/>
-    </row>
-    <row r="213" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A213" s="34"/>
-      <c r="B213" s="34"/>
-      <c r="C213" s="34"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="5" t="s">
+      <c r="H230" s="56"/>
+    </row>
+    <row r="231" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A231" s="57"/>
+      <c r="B231" s="57"/>
+      <c r="C231" s="58"/>
+      <c r="D231" s="57"/>
+      <c r="E231" s="58"/>
+      <c r="F231" s="62"/>
+      <c r="G231" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H213" s="26"/>
-    </row>
-    <row r="214" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A214" s="45">
+      <c r="H231" s="56"/>
+    </row>
+    <row r="232" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A232" s="63">
         <v>717</v>
       </c>
-      <c r="B214" s="45">
+      <c r="B232" s="63">
         <v>2</v>
       </c>
-      <c r="C214" s="45" t="s">
+      <c r="C232" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="D214" s="45" t="s">
+      <c r="D232" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="E214" s="45" t="s">
+      <c r="E232" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="F214" s="46" t="s">
+      <c r="F232" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="G214" s="47" t="s">
+      <c r="G232" s="65" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A215" s="45" t="s">
+      <c r="H232" s="56"/>
+    </row>
+    <row r="233" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A233" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="B215" s="45"/>
-      <c r="C215" s="45"/>
-      <c r="D215" s="45"/>
-      <c r="E215" s="45"/>
-      <c r="F215" s="46" t="s">
+      <c r="B233" s="63"/>
+      <c r="C233" s="63"/>
+      <c r="D233" s="63"/>
+      <c r="E233" s="63"/>
+      <c r="F233" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="G215" s="47" t="s">
+      <c r="G233" s="65" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A216" s="45" t="s">
+      <c r="H233" s="56"/>
+    </row>
+    <row r="234" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A234" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="B216" s="45"/>
-      <c r="C216" s="45"/>
-      <c r="D216" s="45"/>
-      <c r="E216" s="45"/>
-      <c r="F216" s="46"/>
-      <c r="G216" s="47" t="s">
+      <c r="B234" s="63"/>
+      <c r="C234" s="63"/>
+      <c r="D234" s="63"/>
+      <c r="E234" s="63"/>
+      <c r="F234" s="64"/>
+      <c r="G234" s="65" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A217" s="45">
+      <c r="H234" s="56"/>
+    </row>
+    <row r="235" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A235" s="63">
         <v>719</v>
       </c>
-      <c r="B217" s="45">
+      <c r="B235" s="63">
         <v>2</v>
       </c>
-      <c r="C217" s="45" t="s">
+      <c r="C235" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D217" s="45" t="s">
+      <c r="D235" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="E217" s="45" t="s">
+      <c r="E235" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="F217" s="46" t="s">
+      <c r="F235" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="G217" s="47" t="s">
+      <c r="G235" s="65" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A218" s="45" t="s">
+      <c r="H235" s="56"/>
+    </row>
+    <row r="236" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A236" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="45"/>
-      <c r="C218" s="45"/>
-      <c r="D218" s="45"/>
-      <c r="E218" s="45"/>
-      <c r="F218" s="46" t="s">
+      <c r="B236" s="63"/>
+      <c r="C236" s="63"/>
+      <c r="D236" s="63"/>
+      <c r="E236" s="63"/>
+      <c r="F236" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="G218" s="47" t="s">
+      <c r="G236" s="65" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A219" s="45" t="s">
+      <c r="H236" s="56"/>
+    </row>
+    <row r="237" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A237" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="B219" s="45"/>
-      <c r="C219" s="45"/>
-      <c r="D219" s="45"/>
-      <c r="E219" s="45"/>
-      <c r="F219" s="46"/>
-      <c r="G219" s="47" t="s">
+      <c r="B237" s="63"/>
+      <c r="C237" s="63"/>
+      <c r="D237" s="63"/>
+      <c r="E237" s="63"/>
+      <c r="F237" s="64"/>
+      <c r="G237" s="65" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" ht="14.25" customHeight="1"/>
-    <row r="221" spans="1:8" ht="14.25" customHeight="1"/>
-    <row r="222" spans="1:8" ht="14.25" customHeight="1"/>
-    <row r="223" spans="1:8" ht="14.25" customHeight="1"/>
-    <row r="224" spans="1:8" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
+      <c r="H237" s="56"/>
+    </row>
+    <row r="238" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="239" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="240" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="241" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="242" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="243" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="244" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="245" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A245" s="26"/>
+    </row>
+    <row r="246" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="247" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="248" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="249" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="250" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="251" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="252" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="253" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="254" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="255" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="256" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="257" ht="14.25" customHeight="1"/>
     <row r="258" ht="14.25" customHeight="1"/>
     <row r="259" ht="14.25" customHeight="1"/>
@@ -5385,17 +5811,68 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="194">
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="D214:D216"/>
-    <mergeCell ref="E214:E216"/>
-    <mergeCell ref="A217:A219"/>
-    <mergeCell ref="B217:B219"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="E217:E219"/>
+  <mergeCells count="210">
+    <mergeCell ref="E225:E231"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="D235:D237"/>
+    <mergeCell ref="E235:E237"/>
+    <mergeCell ref="E210:E216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="C217:C220"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="E217:E220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="E221:E224"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="B178:B182"/>
+    <mergeCell ref="C178:C182"/>
+    <mergeCell ref="D178:D182"/>
+    <mergeCell ref="E178:E182"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="C183:C187"/>
+    <mergeCell ref="D183:D187"/>
+    <mergeCell ref="E183:E187"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="D198:D202"/>
+    <mergeCell ref="E198:E202"/>
+    <mergeCell ref="A203:A209"/>
+    <mergeCell ref="B203:B209"/>
+    <mergeCell ref="C203:C209"/>
+    <mergeCell ref="D203:D209"/>
+    <mergeCell ref="E203:E209"/>
+    <mergeCell ref="A210:A216"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="D210:D216"/>
+    <mergeCell ref="A188:A194"/>
+    <mergeCell ref="B188:B194"/>
+    <mergeCell ref="C188:C194"/>
+    <mergeCell ref="D188:D194"/>
+    <mergeCell ref="E188:E194"/>
+    <mergeCell ref="A195:G195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="A225:A231"/>
+    <mergeCell ref="B225:B231"/>
+    <mergeCell ref="C225:C231"/>
+    <mergeCell ref="D225:D231"/>
     <mergeCell ref="D153:D158"/>
     <mergeCell ref="E153:E158"/>
     <mergeCell ref="D159:D164"/>
@@ -5423,45 +5900,10 @@
     <mergeCell ref="C135:C140"/>
     <mergeCell ref="D147:D152"/>
     <mergeCell ref="E147:E152"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="D203:D206"/>
-    <mergeCell ref="E203:E206"/>
-    <mergeCell ref="A207:A213"/>
-    <mergeCell ref="B207:B213"/>
-    <mergeCell ref="C207:C213"/>
-    <mergeCell ref="D207:D213"/>
-    <mergeCell ref="E207:E213"/>
-    <mergeCell ref="D192:D198"/>
-    <mergeCell ref="E192:E198"/>
-    <mergeCell ref="D199:D202"/>
-    <mergeCell ref="E199:E202"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A184"/>
-    <mergeCell ref="B180:B184"/>
-    <mergeCell ref="C180:C184"/>
-    <mergeCell ref="D180:D184"/>
-    <mergeCell ref="E180:E184"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="B185:B191"/>
-    <mergeCell ref="C185:C191"/>
-    <mergeCell ref="A192:A198"/>
-    <mergeCell ref="B192:B198"/>
-    <mergeCell ref="C192:C198"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="C199:C202"/>
     <mergeCell ref="A171:A176"/>
     <mergeCell ref="D171:D176"/>
     <mergeCell ref="E171:E176"/>
     <mergeCell ref="A177:G177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="D185:D191"/>
-    <mergeCell ref="E185:E191"/>
     <mergeCell ref="B171:B176"/>
     <mergeCell ref="C171:C176"/>
     <mergeCell ref="A108:G108"/>
@@ -5582,6 +6024,6 @@
     <mergeCell ref="E33:E35"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>